--- a/resources/2012microdata_codebook.xlsx
+++ b/resources/2012microdata_codebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7727,9 +7727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -7772,6 +7772,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -7786,19 +7824,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7809,8 +7845,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7826,21 +7894,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -7848,7 +7901,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7857,60 +7910,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7925,7 +7925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7937,7 +7955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7949,7 +7973,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7961,49 +8069,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8015,97 +8105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8116,69 +8116,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8211,8 +8148,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8222,10 +8222,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8234,133 +8234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -8762,25 +8762,25 @@
   <dimension ref="A1:H1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.10909090909091" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.66363636363636" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.6636363636364" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" style="7" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" customWidth="1"/>
     <col min="4" max="4" width="4" style="6" customWidth="1"/>
     <col min="5" max="5" width="12" style="7" customWidth="1"/>
-    <col min="6" max="6" width="41.1090909090909" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.1083333333333" style="4" customWidth="1"/>
     <col min="7" max="7" width="39" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6636363636364" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.10909090909091" style="7"/>
+    <col min="8" max="8" width="35.6666666666667" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.10833333333333" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="39" spans="1:7">
+    <row r="1" s="5" customFormat="1" ht="38.25" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="50" spans="1:7">
+    <row r="3" ht="51" spans="1:7">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="112.5" spans="1:7">
+    <row r="4" ht="114.75" spans="1:7">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="250" spans="1:7">
+    <row r="5" ht="255" spans="1:7">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="25" spans="1:7">
+    <row r="6" ht="25.5" spans="1:7">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="125" spans="1:7">
+    <row r="8" ht="127.5" spans="1:7">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" ht="150" spans="1:7">
+    <row r="9" ht="153" spans="1:7">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="150" spans="1:7">
+    <row r="10" ht="153" spans="1:7">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="25" spans="1:7">
+    <row r="11" ht="25.5" spans="1:7">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="37.5" spans="1:7">
+    <row r="12" ht="38.25" spans="1:7">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" ht="162.5" spans="1:7">
+    <row r="13" ht="153" spans="1:7">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="87.5" spans="1:7">
+    <row r="14" ht="89.25" spans="1:7">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" ht="37.5" spans="1:7">
+    <row r="15" ht="38.25" spans="1:7">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" ht="50" spans="1:7">
+    <row r="16" ht="51" spans="1:7">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" ht="37.5" spans="1:7">
+    <row r="17" ht="38.25" spans="1:7">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="25" spans="1:7">
+    <row r="18" ht="25.5" spans="1:7">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="25" spans="1:7">
+    <row r="19" ht="25.5" spans="1:7">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" ht="25" spans="1:7">
+    <row r="20" ht="25.5" spans="1:7">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="37.5" spans="1:7">
+    <row r="21" ht="38.25" spans="1:7">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="25" spans="1:7">
+    <row r="22" ht="25.5" spans="1:7">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" ht="37.5" spans="1:7">
+    <row r="23" ht="38.25" spans="1:7">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" ht="25" spans="1:7">
+    <row r="24" ht="25.5" spans="1:7">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" ht="25" spans="1:7">
+    <row r="25" ht="25.5" spans="1:7">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" ht="125" spans="1:7">
+    <row r="26" ht="127.5" spans="1:7">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" ht="175" spans="1:7">
+    <row r="27" ht="178.5" spans="1:7">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" ht="37.5" spans="1:7">
+    <row r="28" ht="38.25" spans="1:7">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" ht="37.5" spans="1:7">
+    <row r="29" ht="38.25" spans="1:7">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="37.5" spans="1:7">
+    <row r="30" ht="38.25" spans="1:7">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" ht="37.5" spans="1:7">
+    <row r="31" ht="38.25" spans="1:7">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="37.5" spans="1:7">
+    <row r="32" ht="38.25" spans="1:7">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" ht="37.5" spans="1:7">
+    <row r="33" ht="38.25" spans="1:7">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" ht="37.5" spans="1:7">
+    <row r="34" ht="38.25" spans="1:7">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" ht="37.5" spans="1:7">
+    <row r="35" ht="38.25" spans="1:7">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" ht="37.5" spans="1:7">
+    <row r="36" ht="38.25" spans="1:7">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" ht="37.5" spans="1:7">
+    <row r="37" ht="38.25" spans="1:7">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" ht="37.5" spans="1:7">
+    <row r="38" ht="38.25" spans="1:7">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" ht="37.5" spans="1:7">
+    <row r="39" ht="38.25" spans="1:7">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" ht="37.5" spans="1:7">
+    <row r="40" ht="38.25" spans="1:7">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" ht="37.5" spans="1:7">
+    <row r="41" ht="38.25" spans="1:7">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" ht="37.5" spans="1:7">
+    <row r="42" ht="38.25" spans="1:7">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" ht="37.5" spans="1:7">
+    <row r="43" ht="38.25" spans="1:7">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" ht="25" spans="1:7">
+    <row r="44" ht="25.5" spans="1:7">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" ht="237.5" spans="1:7">
+    <row r="45" ht="242.25" spans="1:7">
       <c r="A45" s="12">
         <v>44</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" ht="237.5" spans="1:7">
+    <row r="46" ht="242.25" spans="1:7">
       <c r="A46" s="12">
         <v>45</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" ht="237.5" spans="1:7">
+    <row r="47" ht="242.25" spans="1:7">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" ht="25" spans="1:7">
+    <row r="48" ht="25.5" spans="1:7">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" ht="25" spans="1:7">
+    <row r="49" ht="25.5" spans="1:7">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" ht="25" spans="1:7">
+    <row r="50" ht="25.5" spans="1:7">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" ht="350" spans="1:7">
+    <row r="51" ht="357" spans="1:7">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" ht="325" spans="1:8">
+    <row r="52" ht="331.5" spans="1:8">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" ht="37.5" spans="1:7">
+    <row r="53" ht="38.25" spans="1:7">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" ht="37.5" spans="1:7">
+    <row r="54" ht="38.25" spans="1:7">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" ht="37.5" spans="1:7">
+    <row r="55" ht="38.25" spans="1:7">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" ht="50" spans="1:7">
+    <row r="56" ht="51" spans="1:7">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" ht="50" spans="1:7">
+    <row r="57" ht="51" spans="1:7">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" ht="37.5" spans="1:7">
+    <row r="58" ht="38.25" spans="1:7">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" ht="37.5" spans="1:7">
+    <row r="59" ht="38.25" spans="1:7">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" ht="25" spans="1:7">
+    <row r="60" ht="25.5" spans="1:7">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" ht="25" spans="1:7">
+    <row r="61" ht="25.5" spans="1:7">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" ht="37.5" spans="1:7">
+    <row r="62" ht="38.25" spans="1:7">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" ht="37.5" spans="1:7">
+    <row r="63" ht="38.25" spans="1:7">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" ht="37.5" spans="1:7">
+    <row r="64" ht="38.25" spans="1:7">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" ht="37.5" spans="1:7">
+    <row r="65" ht="38.25" spans="1:7">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" ht="25" spans="1:7">
+    <row r="66" ht="25.5" spans="1:7">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" ht="37.5" spans="1:7">
+    <row r="67" ht="38.25" spans="1:7">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" ht="225" spans="1:7">
+    <row r="68" ht="216.75" spans="1:7">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" ht="37.5" spans="1:7">
+    <row r="69" ht="38.25" spans="1:7">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" ht="37.5" spans="1:7">
+    <row r="70" ht="38.25" spans="1:7">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" ht="37.5" spans="1:7">
+    <row r="71" ht="38.25" spans="1:7">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" ht="37.5" spans="1:7">
+    <row r="72" ht="38.25" spans="1:7">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" ht="37.5" spans="1:7">
+    <row r="73" ht="38.25" spans="1:7">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" ht="37.5" spans="1:7">
+    <row r="74" ht="38.25" spans="1:7">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" ht="37.5" spans="1:7">
+    <row r="75" ht="38.25" spans="1:7">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" ht="25" spans="1:7">
+    <row r="76" ht="25.5" spans="1:7">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" ht="62.5" spans="1:7">
+    <row r="77" ht="63.75" spans="1:7">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" ht="162.5" spans="1:7">
+    <row r="78" ht="165.75" spans="1:7">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" ht="25" spans="1:7">
+    <row r="79" ht="25.5" spans="1:7">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" ht="100" spans="1:7">
+    <row r="80" ht="102" spans="1:7">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" ht="50" spans="1:7">
+    <row r="81" ht="51" spans="1:7">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="82" ht="37.5" spans="1:7">
+    <row r="82" ht="38.25" spans="1:7">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" ht="37.5" spans="1:7">
+    <row r="83" ht="38.25" spans="1:7">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" ht="137.5" spans="1:7">
+    <row r="84" ht="127.5" spans="1:7">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" ht="137.5" spans="1:7">
+    <row r="85" ht="127.5" spans="1:7">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" ht="75" spans="1:7">
+    <row r="86" ht="76.5" spans="1:7">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="88" ht="25" spans="1:7">
+    <row r="88" ht="25.5" spans="1:7">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" ht="25" spans="1:7">
+    <row r="89" ht="25.5" spans="1:7">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" ht="25" spans="1:7">
+    <row r="90" ht="25.5" spans="1:7">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" ht="37.5" spans="1:7">
+    <row r="91" ht="38.25" spans="1:7">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" ht="25" spans="1:7">
+    <row r="92" ht="25.5" spans="1:7">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" ht="87.5" spans="1:7">
+    <row r="94" ht="89.25" spans="1:7">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" ht="150" spans="1:7">
+    <row r="96" ht="153" spans="1:7">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" ht="25" spans="1:7">
+    <row r="97" ht="25.5" spans="1:7">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" ht="25" spans="1:7">
+    <row r="98" ht="25.5" spans="1:7">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" ht="25" spans="1:7">
+    <row r="99" ht="25.5" spans="1:7">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" ht="25" spans="1:7">
+    <row r="100" ht="25.5" spans="1:7">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" ht="25" spans="1:7">
+    <row r="101" ht="25.5" spans="1:7">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" ht="25" spans="1:7">
+    <row r="102" ht="25.5" spans="1:7">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" ht="25" spans="1:7">
+    <row r="103" ht="25.5" spans="1:7">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" ht="25" spans="1:7">
+    <row r="104" ht="25.5" spans="1:7">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" ht="25" spans="1:7">
+    <row r="105" ht="25.5" spans="1:7">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="106" ht="25" spans="1:7">
+    <row r="106" ht="25.5" spans="1:7">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" ht="25" spans="1:7">
+    <row r="107" ht="25.5" spans="1:7">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" ht="25" spans="1:7">
+    <row r="108" ht="25.5" spans="1:7">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" ht="100" spans="1:7">
+    <row r="109" ht="102" spans="1:7">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="110" ht="25" spans="1:7">
+    <row r="110" ht="25.5" spans="1:7">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" ht="25" spans="1:7">
+    <row r="111" ht="25.5" spans="1:7">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" ht="25" spans="1:7">
+    <row r="112" ht="25.5" spans="1:7">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" ht="25" spans="1:7">
+    <row r="113" ht="25.5" spans="1:7">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" ht="25" spans="1:7">
+    <row r="114" ht="25.5" spans="1:7">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="115" ht="25" spans="1:7">
+    <row r="115" ht="25.5" spans="1:7">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" ht="25" spans="1:7">
+    <row r="116" ht="25.5" spans="1:7">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117" ht="25" spans="1:7">
+    <row r="117" ht="25.5" spans="1:7">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="118" ht="37.5" spans="1:7">
+    <row r="118" ht="38.25" spans="1:7">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" ht="37.5" spans="1:7">
+    <row r="119" ht="38.25" spans="1:7">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" ht="37.5" spans="1:7">
+    <row r="120" ht="38.25" spans="1:7">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="121" ht="37.5" spans="1:7">
+    <row r="121" ht="38.25" spans="1:7">
       <c r="A121" s="12">
         <v>119</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" ht="37.5" spans="1:7">
+    <row r="122" ht="38.25" spans="1:7">
       <c r="A122" s="12">
         <v>120</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="123" ht="37.5" spans="1:7">
+    <row r="123" ht="38.25" spans="1:7">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="124" ht="37.5" spans="1:7">
+    <row r="124" ht="38.25" spans="1:7">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" ht="37.5" spans="1:7">
+    <row r="125" ht="38.25" spans="1:7">
       <c r="A125" s="12">
         <v>123</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" ht="37.5" spans="1:7">
+    <row r="126" ht="38.25" spans="1:7">
       <c r="A126" s="12">
         <v>124</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" ht="37.5" spans="1:7">
+    <row r="127" ht="38.25" spans="1:7">
       <c r="A127" s="12">
         <v>125</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="128" ht="37.5" spans="1:7">
+    <row r="128" ht="38.25" spans="1:7">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" ht="37.5" spans="1:7">
+    <row r="129" ht="38.25" spans="1:7">
       <c r="A129" s="12">
         <v>127</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="130" ht="37.5" spans="1:7">
+    <row r="130" ht="38.25" spans="1:7">
       <c r="A130" s="12">
         <v>128</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" ht="37.5" spans="1:7">
+    <row r="131" ht="38.25" spans="1:7">
       <c r="A131" s="12">
         <v>129</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" ht="37.5" spans="1:7">
+    <row r="132" ht="38.25" spans="1:7">
       <c r="A132" s="12">
         <v>130</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" ht="37.5" spans="1:7">
+    <row r="133" ht="38.25" spans="1:7">
       <c r="A133" s="12">
         <v>131</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" ht="37.5" spans="1:7">
+    <row r="134" ht="38.25" spans="1:7">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" ht="37.5" spans="1:7">
+    <row r="135" ht="38.25" spans="1:7">
       <c r="A135" s="12">
         <v>133</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" ht="37.5" spans="1:7">
+    <row r="136" ht="38.25" spans="1:7">
       <c r="A136" s="12">
         <v>134</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="137" ht="37.5" spans="1:7">
+    <row r="137" ht="38.25" spans="1:7">
       <c r="A137" s="12">
         <v>135</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="138" ht="25" spans="1:7">
+    <row r="138" ht="25.5" spans="1:7">
       <c r="A138" s="12">
         <v>136</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="139" ht="37.5" spans="1:7">
+    <row r="139" ht="38.25" spans="1:7">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" ht="37.5" spans="1:7">
+    <row r="140" ht="38.25" spans="1:7">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="141" ht="37.5" spans="1:7">
+    <row r="141" ht="38.25" spans="1:7">
       <c r="A141" s="12">
         <v>139</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" ht="37.5" spans="1:7">
+    <row r="142" ht="38.25" spans="1:7">
       <c r="A142" s="12">
         <v>140</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="143" ht="37.5" spans="1:7">
+    <row r="143" ht="38.25" spans="1:7">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="144" ht="37.5" spans="1:7">
+    <row r="144" ht="38.25" spans="1:7">
       <c r="A144" s="12">
         <v>142</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" ht="37.5" spans="1:7">
+    <row r="145" ht="38.25" spans="1:7">
       <c r="A145" s="12">
         <v>143</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="146" ht="37.5" spans="1:7">
+    <row r="146" ht="38.25" spans="1:7">
       <c r="A146" s="12">
         <v>144</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" ht="25" spans="1:7">
+    <row r="147" ht="25.5" spans="1:7">
       <c r="A147" s="12">
         <v>145</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" ht="25" spans="1:7">
+    <row r="148" ht="25.5" spans="1:7">
       <c r="A148" s="12">
         <v>146</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" ht="25" spans="1:7">
+    <row r="149" ht="25.5" spans="1:7">
       <c r="A149" s="12">
         <v>147</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="150" ht="25" spans="1:7">
+    <row r="150" ht="25.5" spans="1:7">
       <c r="A150" s="12">
         <v>148</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="151" ht="25" spans="1:7">
+    <row r="151" ht="25.5" spans="1:7">
       <c r="A151" s="12">
         <v>149</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" ht="25" spans="1:7">
+    <row r="152" ht="25.5" spans="1:7">
       <c r="A152" s="12">
         <v>150</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" ht="25" spans="1:7">
+    <row r="153" ht="25.5" spans="1:7">
       <c r="A153" s="12">
         <v>151</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="154" ht="162.5" spans="1:7">
+    <row r="154" ht="165.75" spans="1:7">
       <c r="A154" s="12">
         <v>152</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="155" ht="37.5" spans="1:7">
+    <row r="155" ht="38.25" spans="1:7">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="156" ht="62.5" spans="1:7">
+    <row r="156" ht="63.75" spans="1:7">
       <c r="A156" s="12">
         <v>154</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" ht="37.5" spans="1:7">
+    <row r="157" ht="38.25" spans="1:7">
       <c r="A157" s="12">
         <v>155</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="158" ht="37.5" spans="1:7">
+    <row r="158" ht="38.25" spans="1:7">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="159" ht="37.5" spans="1:7">
+    <row r="159" ht="38.25" spans="1:7">
       <c r="A159" s="12">
         <v>157</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" ht="37.5" spans="1:7">
+    <row r="160" ht="38.25" spans="1:7">
       <c r="A160" s="12">
         <v>158</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="161" ht="37.5" spans="1:7">
+    <row r="161" ht="38.25" spans="1:7">
       <c r="A161" s="12">
         <v>159</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="162" ht="37.5" spans="1:7">
+    <row r="162" ht="38.25" spans="1:7">
       <c r="A162" s="12">
         <v>160</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="163" ht="37.5" spans="1:7">
+    <row r="163" ht="38.25" spans="1:7">
       <c r="A163" s="12">
         <v>161</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="164" ht="37.5" spans="1:7">
+    <row r="164" ht="38.25" spans="1:7">
       <c r="A164" s="12">
         <v>162</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" ht="37.5" spans="1:7">
+    <row r="165" ht="38.25" spans="1:7">
       <c r="A165" s="12">
         <v>163</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="166" ht="37.5" spans="1:7">
+    <row r="166" ht="38.25" spans="1:7">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="167" ht="37.5" spans="1:7">
+    <row r="167" ht="38.25" spans="1:7">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="168" ht="37.5" spans="1:7">
+    <row r="168" ht="38.25" spans="1:7">
       <c r="A168" s="12">
         <v>166</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="169" ht="37.5" spans="1:7">
+    <row r="169" ht="38.25" spans="1:7">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="170" ht="37.5" spans="1:7">
+    <row r="170" ht="38.25" spans="1:7">
       <c r="A170" s="12">
         <v>168</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="171" ht="37.5" spans="1:7">
+    <row r="171" ht="38.25" spans="1:7">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="172" ht="37.5" spans="1:7">
+    <row r="172" ht="38.25" spans="1:7">
       <c r="A172" s="12">
         <v>170</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="173" ht="37.5" spans="1:7">
+    <row r="173" ht="38.25" spans="1:7">
       <c r="A173" s="12">
         <v>171</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" ht="37.5" spans="1:7">
+    <row r="174" ht="38.25" spans="1:7">
       <c r="A174" s="12">
         <v>172</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" ht="37.5" spans="1:7">
+    <row r="175" ht="38.25" spans="1:7">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" ht="37.5" spans="1:7">
+    <row r="176" ht="38.25" spans="1:7">
       <c r="A176" s="12">
         <v>174</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="177" ht="37.5" spans="1:7">
+    <row r="177" ht="38.25" spans="1:7">
       <c r="A177" s="12">
         <v>175</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" ht="37.5" spans="1:7">
+    <row r="178" ht="38.25" spans="1:7">
       <c r="A178" s="12">
         <v>176</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" ht="37.5" spans="1:7">
+    <row r="179" ht="38.25" spans="1:7">
       <c r="A179" s="12">
         <v>177</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="180" ht="37.5" spans="1:7">
+    <row r="180" ht="38.25" spans="1:7">
       <c r="A180" s="12">
         <v>178</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="181" ht="37.5" spans="1:7">
+    <row r="181" ht="38.25" spans="1:7">
       <c r="A181" s="12">
         <v>179</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" ht="37.5" spans="1:7">
+    <row r="182" ht="38.25" spans="1:7">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="183" ht="37.5" spans="1:7">
+    <row r="183" ht="38.25" spans="1:7">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="184" ht="37.5" spans="1:7">
+    <row r="184" ht="38.25" spans="1:7">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" ht="50" spans="1:7">
+    <row r="185" ht="51" spans="1:7">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="186" ht="37.5" spans="1:7">
+    <row r="186" ht="38.25" spans="1:7">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" ht="37.5" spans="1:7">
+    <row r="187" ht="38.25" spans="1:7">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" ht="37.5" spans="1:7">
+    <row r="188" ht="38.25" spans="1:7">
       <c r="A188" s="12">
         <v>186</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="189" ht="37.5" spans="1:7">
+    <row r="189" ht="38.25" spans="1:7">
       <c r="A189" s="12">
         <v>187</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="190" ht="37.5" spans="1:7">
+    <row r="190" ht="38.25" spans="1:7">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" ht="37.5" spans="1:7">
+    <row r="191" ht="38.25" spans="1:7">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="192" ht="37.5" spans="1:7">
+    <row r="192" ht="38.25" spans="1:7">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="193" ht="50" spans="1:7">
+    <row r="193" ht="51" spans="1:7">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" ht="50" spans="1:7">
+    <row r="194" ht="51" spans="1:7">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" ht="50" spans="1:7">
+    <row r="195" ht="51" spans="1:7">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="196" ht="37.5" spans="1:7">
+    <row r="196" ht="38.25" spans="1:7">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" ht="37.5" spans="1:7">
+    <row r="197" ht="38.25" spans="1:7">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="198" ht="37.5" spans="1:7">
+    <row r="198" ht="38.25" spans="1:7">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="199" ht="37.5" spans="1:7">
+    <row r="199" ht="38.25" spans="1:7">
       <c r="A199" s="12">
         <v>197</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" ht="37.5" spans="1:7">
+    <row r="200" ht="38.25" spans="1:7">
       <c r="A200" s="12">
         <v>198</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" ht="37.5" spans="1:7">
+    <row r="201" ht="38.25" spans="1:7">
       <c r="A201" s="12">
         <v>199</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" ht="37.5" spans="1:7">
+    <row r="202" ht="38.25" spans="1:7">
       <c r="A202" s="12">
         <v>200</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="203" ht="37.5" spans="1:7">
+    <row r="203" ht="38.25" spans="1:7">
       <c r="A203" s="12">
         <v>201</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" ht="37.5" spans="1:7">
+    <row r="204" ht="38.25" spans="1:7">
       <c r="A204" s="12">
         <v>202</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" ht="37.5" spans="1:7">
+    <row r="205" ht="38.25" spans="1:7">
       <c r="A205" s="12">
         <v>203</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" ht="37.5" spans="1:7">
+    <row r="206" ht="38.25" spans="1:7">
       <c r="A206" s="12">
         <v>204</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="207" ht="37.5" spans="1:7">
+    <row r="207" ht="38.25" spans="1:7">
       <c r="A207" s="12">
         <v>205</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" ht="37.5" spans="1:7">
+    <row r="208" ht="38.25" spans="1:7">
       <c r="A208" s="12">
         <v>206</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="209" ht="37.5" spans="1:7">
+    <row r="209" ht="38.25" spans="1:7">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -13532,7 +13532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" ht="25" spans="1:7">
+    <row r="210" ht="25.5" spans="1:7">
       <c r="A210" s="12">
         <v>208</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="211" ht="37.5" spans="1:7">
+    <row r="211" ht="38.25" spans="1:7">
       <c r="A211" s="12">
         <v>209</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" ht="37.5" spans="1:7">
+    <row r="212" ht="38.25" spans="1:7">
       <c r="A212" s="12">
         <v>210</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="213" ht="37.5" spans="1:7">
+    <row r="213" ht="38.25" spans="1:7">
       <c r="A213" s="12">
         <v>211</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" ht="37.5" spans="1:7">
+    <row r="214" ht="38.25" spans="1:7">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="215" ht="37.5" spans="1:7">
+    <row r="215" ht="38.25" spans="1:7">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="216" ht="37.5" spans="1:7">
+    <row r="216" ht="38.25" spans="1:7">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="217" ht="37.5" spans="1:7">
+    <row r="217" ht="38.25" spans="1:7">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="218" ht="37.5" spans="1:7">
+    <row r="218" ht="38.25" spans="1:7">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" ht="25" spans="1:7">
+    <row r="219" ht="25.5" spans="1:7">
       <c r="A219" s="12">
         <v>217</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="220" ht="25" spans="1:7">
+    <row r="220" ht="25.5" spans="1:7">
       <c r="A220" s="12">
         <v>218</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="221" ht="25" spans="1:7">
+    <row r="221" ht="25.5" spans="1:7">
       <c r="A221" s="12">
         <v>219</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="222" ht="25" spans="1:7">
+    <row r="222" ht="25.5" spans="1:7">
       <c r="A222" s="12">
         <v>220</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="223" ht="25" spans="1:7">
+    <row r="223" ht="25.5" spans="1:7">
       <c r="A223" s="12">
         <v>221</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="224" ht="25" spans="1:7">
+    <row r="224" ht="25.5" spans="1:7">
       <c r="A224" s="12">
         <v>222</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="225" ht="25" spans="1:7">
+    <row r="225" ht="25.5" spans="1:7">
       <c r="A225" s="12">
         <v>223</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="226" ht="25" spans="1:7">
+    <row r="226" ht="25.5" spans="1:7">
       <c r="A226" s="12">
         <v>224</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="227" ht="187.5" spans="1:7">
+    <row r="227" ht="191.25" spans="1:7">
       <c r="A227" s="12">
         <v>225</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="228" ht="37.5" spans="1:7">
+    <row r="228" ht="38.25" spans="1:7">
       <c r="A228" s="12">
         <v>226</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="229" ht="62.5" spans="1:7">
+    <row r="229" ht="63.75" spans="1:7">
       <c r="A229" s="12">
         <v>227</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="230" ht="37.5" spans="1:7">
+    <row r="230" ht="38.25" spans="1:7">
       <c r="A230" s="12">
         <v>228</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="231" ht="37.5" spans="1:7">
+    <row r="231" ht="38.25" spans="1:7">
       <c r="A231" s="12">
         <v>229</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="232" ht="37.5" spans="1:7">
+    <row r="232" ht="38.25" spans="1:7">
       <c r="A232" s="12">
         <v>230</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="233" ht="37.5" spans="1:7">
+    <row r="233" ht="38.25" spans="1:7">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" ht="37.5" spans="1:7">
+    <row r="234" ht="38.25" spans="1:7">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="235" ht="37.5" spans="1:7">
+    <row r="235" ht="38.25" spans="1:7">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="236" ht="37.5" spans="1:7">
+    <row r="236" ht="38.25" spans="1:7">
       <c r="A236" s="12">
         <v>234</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="237" ht="37.5" spans="1:7">
+    <row r="237" ht="38.25" spans="1:7">
       <c r="A237" s="12">
         <v>235</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="238" ht="37.5" spans="1:7">
+    <row r="238" ht="38.25" spans="1:7">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="239" ht="37.5" spans="1:7">
+    <row r="239" ht="38.25" spans="1:7">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="240" ht="37.5" spans="1:7">
+    <row r="240" ht="38.25" spans="1:7">
       <c r="A240" s="12">
         <v>238</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="241" ht="37.5" spans="1:7">
+    <row r="241" ht="38.25" spans="1:7">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" ht="37.5" spans="1:7">
+    <row r="242" ht="38.25" spans="1:7">
       <c r="A242" s="12">
         <v>240</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" ht="37.5" spans="1:7">
+    <row r="243" ht="38.25" spans="1:7">
       <c r="A243" s="12">
         <v>241</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" ht="37.5" spans="1:7">
+    <row r="244" ht="38.25" spans="1:7">
       <c r="A244" s="12">
         <v>242</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="245" ht="37.5" spans="1:7">
+    <row r="245" ht="38.25" spans="1:7">
       <c r="A245" s="12">
         <v>243</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="246" ht="37.5" spans="1:7">
+    <row r="246" ht="38.25" spans="1:7">
       <c r="A246" s="12">
         <v>244</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" ht="37.5" spans="1:7">
+    <row r="247" ht="38.25" spans="1:7">
       <c r="A247" s="12">
         <v>245</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="248" ht="37.5" spans="1:7">
+    <row r="248" ht="38.25" spans="1:7">
       <c r="A248" s="12">
         <v>246</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="249" ht="37.5" spans="1:7">
+    <row r="249" ht="38.25" spans="1:7">
       <c r="A249" s="12">
         <v>247</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="250" ht="37.5" spans="1:7">
+    <row r="250" ht="38.25" spans="1:7">
       <c r="A250" s="12">
         <v>248</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="251" ht="37.5" spans="1:7">
+    <row r="251" ht="38.25" spans="1:7">
       <c r="A251" s="12">
         <v>249</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" ht="37.5" spans="1:7">
+    <row r="252" ht="38.25" spans="1:7">
       <c r="A252" s="12">
         <v>250</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="253" ht="37.5" spans="1:7">
+    <row r="253" ht="38.25" spans="1:7">
       <c r="A253" s="12">
         <v>251</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" ht="37.5" spans="1:7">
+    <row r="254" ht="38.25" spans="1:7">
       <c r="A254" s="12">
         <v>252</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="255" ht="37.5" spans="1:7">
+    <row r="255" ht="38.25" spans="1:7">
       <c r="A255" s="12">
         <v>253</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="256" ht="37.5" spans="1:7">
+    <row r="256" ht="38.25" spans="1:7">
       <c r="A256" s="12">
         <v>254</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="257" ht="37.5" spans="1:7">
+    <row r="257" ht="38.25" spans="1:7">
       <c r="A257" s="12">
         <v>255</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" ht="37.5" spans="1:7">
+    <row r="258" ht="38.25" spans="1:7">
       <c r="A258" s="12">
         <v>256</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="259" ht="37.5" spans="1:7">
+    <row r="259" ht="38.25" spans="1:7">
       <c r="A259" s="12">
         <v>257</v>
       </c>
@@ -14664,7 +14664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" ht="37.5" spans="1:7">
+    <row r="260" ht="38.25" spans="1:7">
       <c r="A260" s="12">
         <v>258</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="261" ht="37.5" spans="1:7">
+    <row r="261" ht="38.25" spans="1:7">
       <c r="A261" s="12">
         <v>259</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="262" ht="37.5" spans="1:7">
+    <row r="262" ht="38.25" spans="1:7">
       <c r="A262" s="12">
         <v>260</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="263" ht="37.5" spans="1:7">
+    <row r="263" ht="38.25" spans="1:7">
       <c r="A263" s="12">
         <v>261</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" ht="37.5" spans="1:7">
+    <row r="264" ht="38.25" spans="1:7">
       <c r="A264" s="12">
         <v>262</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265" ht="62.5" spans="1:7">
+    <row r="265" ht="63.75" spans="1:7">
       <c r="A265" s="12">
         <v>263</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="266" ht="37.5" spans="1:7">
+    <row r="266" ht="38.25" spans="1:7">
       <c r="A266" s="12">
         <v>264</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" ht="62.5" spans="1:7">
+    <row r="267" ht="63.75" spans="1:7">
       <c r="A267" s="12">
         <v>265</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="268" ht="37.5" spans="1:7">
+    <row r="268" ht="38.25" spans="1:7">
       <c r="A268" s="12">
         <v>266</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="269" ht="37.5" spans="1:7">
+    <row r="269" ht="38.25" spans="1:7">
       <c r="A269" s="12">
         <v>267</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="270" ht="37.5" spans="1:7">
+    <row r="270" ht="38.25" spans="1:7">
       <c r="A270" s="12">
         <v>268</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="271" ht="37.5" spans="1:7">
+    <row r="271" ht="38.25" spans="1:7">
       <c r="A271" s="12">
         <v>269</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="272" ht="37.5" spans="1:7">
+    <row r="272" ht="38.25" spans="1:7">
       <c r="A272" s="12">
         <v>270</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="273" ht="37.5" spans="1:7">
+    <row r="273" ht="38.25" spans="1:7">
       <c r="A273" s="12">
         <v>271</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" ht="37.5" spans="1:7">
+    <row r="274" ht="38.25" spans="1:7">
       <c r="A274" s="12">
         <v>272</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="275" ht="37.5" spans="1:7">
+    <row r="275" ht="38.25" spans="1:7">
       <c r="A275" s="12">
         <v>273</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="276" ht="37.5" spans="1:7">
+    <row r="276" ht="38.25" spans="1:7">
       <c r="A276" s="12">
         <v>274</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="277" ht="37.5" spans="1:7">
+    <row r="277" ht="38.25" spans="1:7">
       <c r="A277" s="12">
         <v>275</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="278" ht="37.5" spans="1:7">
+    <row r="278" ht="38.25" spans="1:7">
       <c r="A278" s="12">
         <v>276</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="279" ht="37.5" spans="1:7">
+    <row r="279" ht="38.25" spans="1:7">
       <c r="A279" s="12">
         <v>277</v>
       </c>
@@ -15124,7 +15124,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="280" ht="37.5" spans="1:7">
+    <row r="280" ht="38.25" spans="1:7">
       <c r="A280" s="12">
         <v>278</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="281" ht="50" spans="1:7">
+    <row r="281" ht="51" spans="1:7">
       <c r="A281" s="12">
         <v>279</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="282" ht="25" spans="1:7">
+    <row r="282" ht="25.5" spans="1:7">
       <c r="A282" s="12">
         <v>280</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="283" ht="37.5" spans="1:7">
+    <row r="283" ht="38.25" spans="1:7">
       <c r="A283" s="12">
         <v>281</v>
       </c>
@@ -15214,7 +15214,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="284" ht="37.5" spans="1:7">
+    <row r="284" ht="38.25" spans="1:7">
       <c r="A284" s="12">
         <v>282</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="285" ht="37.5" spans="1:7">
+    <row r="285" ht="38.25" spans="1:7">
       <c r="A285" s="12">
         <v>283</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="286" ht="37.5" spans="1:7">
+    <row r="286" ht="38.25" spans="1:7">
       <c r="A286" s="12">
         <v>284</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="287" ht="37.5" spans="1:7">
+    <row r="287" ht="38.25" spans="1:7">
       <c r="A287" s="12">
         <v>285</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" ht="37.5" spans="1:7">
+    <row r="288" ht="38.25" spans="1:7">
       <c r="A288" s="12">
         <v>286</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="289" ht="37.5" spans="1:7">
+    <row r="289" ht="38.25" spans="1:7">
       <c r="A289" s="12">
         <v>287</v>
       </c>
@@ -15352,7 +15352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" ht="37.5" spans="1:7">
+    <row r="290" ht="38.25" spans="1:7">
       <c r="A290" s="12">
         <v>288</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="291" ht="37.5" spans="1:7">
+    <row r="291" ht="38.25" spans="1:7">
       <c r="A291" s="12">
         <v>289</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="292" ht="37.5" spans="1:7">
+    <row r="292" ht="38.25" spans="1:7">
       <c r="A292" s="12">
         <v>290</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="293" ht="37.5" spans="1:7">
+    <row r="293" ht="38.25" spans="1:7">
       <c r="A293" s="12">
         <v>291</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" ht="37.5" spans="1:7">
+    <row r="294" ht="38.25" spans="1:7">
       <c r="A294" s="12">
         <v>292</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" ht="37.5" spans="1:7">
+    <row r="295" ht="38.25" spans="1:7">
       <c r="A295" s="12">
         <v>293</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="296" ht="37.5" spans="1:7">
+    <row r="296" ht="38.25" spans="1:7">
       <c r="A296" s="12">
         <v>294</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="297" ht="37.5" spans="1:7">
+    <row r="297" ht="38.25" spans="1:7">
       <c r="A297" s="12">
         <v>295</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" ht="37.5" spans="1:7">
+    <row r="298" ht="38.25" spans="1:7">
       <c r="A298" s="12">
         <v>296</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="299" ht="37.5" spans="1:7">
+    <row r="299" ht="38.25" spans="1:7">
       <c r="A299" s="12">
         <v>297</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="300" ht="37.5" spans="1:7">
+    <row r="300" ht="38.25" spans="1:7">
       <c r="A300" s="12">
         <v>298</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="301" ht="37.5" spans="1:7">
+    <row r="301" ht="38.25" spans="1:7">
       <c r="A301" s="12">
         <v>299</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="302" ht="37.5" spans="1:7">
+    <row r="302" ht="38.25" spans="1:7">
       <c r="A302" s="12">
         <v>300</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="303" ht="37.5" spans="1:7">
+    <row r="303" ht="38.25" spans="1:7">
       <c r="A303" s="12">
         <v>301</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="304" ht="37.5" spans="1:7">
+    <row r="304" ht="38.25" spans="1:7">
       <c r="A304" s="12">
         <v>302</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="305" ht="37.5" spans="1:7">
+    <row r="305" ht="38.25" spans="1:7">
       <c r="A305" s="12">
         <v>303</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="306" ht="37.5" spans="1:7">
+    <row r="306" ht="38.25" spans="1:7">
       <c r="A306" s="12">
         <v>304</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307" ht="37.5" spans="1:7">
+    <row r="307" ht="38.25" spans="1:7">
       <c r="A307" s="12">
         <v>305</v>
       </c>
@@ -15766,7 +15766,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" ht="37.5" spans="1:7">
+    <row r="308" ht="38.25" spans="1:7">
       <c r="A308" s="12">
         <v>306</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="309" ht="37.5" spans="1:7">
+    <row r="309" ht="38.25" spans="1:7">
       <c r="A309" s="12">
         <v>307</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="310" ht="37.5" spans="1:7">
+    <row r="310" ht="38.25" spans="1:7">
       <c r="A310" s="12">
         <v>308</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="311" ht="37.5" spans="1:7">
+    <row r="311" ht="38.25" spans="1:7">
       <c r="A311" s="12">
         <v>309</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="312" ht="37.5" spans="1:7">
+    <row r="312" ht="38.25" spans="1:7">
       <c r="A312" s="12">
         <v>310</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="313" ht="37.5" spans="1:7">
+    <row r="313" ht="38.25" spans="1:7">
       <c r="A313" s="12">
         <v>311</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="314" ht="37.5" spans="1:7">
+    <row r="314" ht="38.25" spans="1:7">
       <c r="A314" s="12">
         <v>312</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="315" ht="37.5" spans="1:7">
+    <row r="315" ht="38.25" spans="1:7">
       <c r="A315" s="12">
         <v>313</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="316" ht="62.5" spans="1:7">
+    <row r="316" ht="51" spans="1:7">
       <c r="A316" s="12">
         <v>314</v>
       </c>
@@ -15973,7 +15973,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="317" ht="37.5" spans="1:7">
+    <row r="317" ht="38.25" spans="1:7">
       <c r="A317" s="12">
         <v>315</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="318" ht="37.5" spans="1:7">
+    <row r="318" ht="38.25" spans="1:7">
       <c r="A318" s="12">
         <v>316</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="319" ht="37.5" spans="1:7">
+    <row r="319" ht="38.25" spans="1:7">
       <c r="A319" s="12">
         <v>317</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="320" ht="37.5" spans="1:7">
+    <row r="320" ht="38.25" spans="1:7">
       <c r="A320" s="12">
         <v>318</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="321" ht="37.5" spans="1:7">
+    <row r="321" ht="38.25" spans="1:7">
       <c r="A321" s="12">
         <v>319</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="322" ht="37.5" spans="1:7">
+    <row r="322" ht="38.25" spans="1:7">
       <c r="A322" s="12">
         <v>320</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="323" ht="37.5" spans="1:7">
+    <row r="323" ht="38.25" spans="1:7">
       <c r="A323" s="12">
         <v>321</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="324" ht="37.5" spans="1:7">
+    <row r="324" ht="38.25" spans="1:7">
       <c r="A324" s="12">
         <v>322</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="325" ht="37.5" spans="1:7">
+    <row r="325" ht="38.25" spans="1:7">
       <c r="A325" s="12">
         <v>323</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" ht="37.5" spans="1:7">
+    <row r="326" ht="38.25" spans="1:7">
       <c r="A326" s="12">
         <v>324</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="327" ht="37.5" spans="1:7">
+    <row r="327" ht="38.25" spans="1:7">
       <c r="A327" s="12">
         <v>325</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="328" ht="37.5" spans="1:7">
+    <row r="328" ht="38.25" spans="1:7">
       <c r="A328" s="12">
         <v>326</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="329" ht="62.5" spans="1:7">
+    <row r="329" ht="63.75" spans="1:7">
       <c r="A329" s="12">
         <v>327</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="330" ht="62.5" spans="1:7">
+    <row r="330" ht="63.75" spans="1:7">
       <c r="A330" s="12">
         <v>328</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="331" ht="62.5" spans="1:7">
+    <row r="331" ht="63.75" spans="1:7">
       <c r="A331" s="12">
         <v>329</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="332" ht="37.5" spans="1:7">
+    <row r="332" ht="38.25" spans="1:7">
       <c r="A332" s="12">
         <v>330</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="333" ht="37.5" spans="1:7">
+    <row r="333" ht="38.25" spans="1:7">
       <c r="A333" s="12">
         <v>331</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="334" ht="62.5" spans="1:7">
+    <row r="334" ht="63.75" spans="1:7">
       <c r="A334" s="12">
         <v>332</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="335" ht="62.5" spans="1:7">
+    <row r="335" ht="63.75" spans="1:7">
       <c r="A335" s="12">
         <v>333</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="336" ht="37.5" spans="1:7">
+    <row r="336" ht="38.25" spans="1:7">
       <c r="A336" s="12">
         <v>334</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="337" ht="62.5" spans="1:7">
+    <row r="337" ht="63.75" spans="1:7">
       <c r="A337" s="12">
         <v>335</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="338" ht="50" spans="1:7">
+    <row r="338" ht="51" spans="1:7">
       <c r="A338" s="12">
         <v>336</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="339" ht="37.5" spans="1:7">
+    <row r="339" ht="38.25" spans="1:7">
       <c r="A339" s="12">
         <v>337</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="340" ht="75" spans="1:8">
+    <row r="340" ht="76.5" spans="1:8">
       <c r="A340" s="12">
         <v>338</v>
       </c>
@@ -16524,7 +16524,7 @@
       </c>
       <c r="H340" s="15"/>
     </row>
-    <row r="341" ht="75" spans="1:7">
+    <row r="341" ht="76.5" spans="1:7">
       <c r="A341" s="12">
         <v>339</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="342" ht="37.5" spans="1:7">
+    <row r="342" ht="38.25" spans="1:7">
       <c r="A342" s="12">
         <v>340</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="343" ht="37.5" spans="1:7">
+    <row r="343" ht="38.25" spans="1:7">
       <c r="A343" s="12">
         <v>341</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="344" ht="37.5" spans="1:7">
+    <row r="344" ht="38.25" spans="1:7">
       <c r="A344" s="12">
         <v>342</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="345" ht="37.5" spans="1:7">
+    <row r="345" ht="38.25" spans="1:7">
       <c r="A345" s="12">
         <v>343</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="346" ht="37.5" spans="1:7">
+    <row r="346" ht="38.25" spans="1:7">
       <c r="A346" s="12">
         <v>344</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="347" ht="37.5" spans="1:7">
+    <row r="347" ht="38.25" spans="1:7">
       <c r="A347" s="12">
         <v>345</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="348" ht="37.5" spans="1:7">
+    <row r="348" ht="38.25" spans="1:7">
       <c r="A348" s="12">
         <v>346</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="349" ht="37.5" spans="1:7">
+    <row r="349" ht="38.25" spans="1:7">
       <c r="A349" s="12">
         <v>347</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="350" ht="37.5" spans="1:7">
+    <row r="350" ht="38.25" spans="1:7">
       <c r="A350" s="12">
         <v>348</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="351" ht="50" spans="1:7">
+    <row r="351" ht="51" spans="1:7">
       <c r="A351" s="12">
         <v>349</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="352" ht="37.5" spans="1:7">
+    <row r="352" ht="38.25" spans="1:7">
       <c r="A352" s="12">
         <v>350</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="353" ht="25" spans="1:7">
+    <row r="353" ht="25.5" spans="1:7">
       <c r="A353" s="12">
         <v>351</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="354" ht="37.5" spans="1:7">
+    <row r="354" ht="38.25" spans="1:7">
       <c r="A354" s="12">
         <v>352</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="355" ht="37.5" spans="1:7">
+    <row r="355" ht="38.25" spans="1:7">
       <c r="A355" s="12">
         <v>353</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="356" ht="37.5" spans="1:7">
+    <row r="356" ht="38.25" spans="1:7">
       <c r="A356" s="12">
         <v>354</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="357" ht="37.5" spans="1:7">
+    <row r="357" ht="38.25" spans="1:7">
       <c r="A357" s="12">
         <v>355</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="358" ht="37.5" spans="1:7">
+    <row r="358" ht="38.25" spans="1:7">
       <c r="A358" s="12">
         <v>356</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="359" ht="37.5" spans="1:7">
+    <row r="359" ht="38.25" spans="1:7">
       <c r="A359" s="12">
         <v>357</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="360" ht="37.5" spans="1:7">
+    <row r="360" ht="38.25" spans="1:7">
       <c r="A360" s="12">
         <v>358</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" ht="37.5" spans="1:7">
+    <row r="361" ht="38.25" spans="1:7">
       <c r="A361" s="12">
         <v>359</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" ht="37.5" spans="1:7">
+    <row r="362" ht="38.25" spans="1:7">
       <c r="A362" s="12">
         <v>360</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="363" ht="37.5" spans="1:7">
+    <row r="363" ht="38.25" spans="1:7">
       <c r="A363" s="12">
         <v>361</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="364" ht="87.5" spans="1:7">
+    <row r="364" ht="89.25" spans="1:7">
       <c r="A364" s="12">
         <v>362</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="365" ht="37.5" spans="1:7">
+    <row r="365" ht="38.25" spans="1:7">
       <c r="A365" s="12">
         <v>363</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="366" ht="37.5" spans="1:7">
+    <row r="366" ht="38.25" spans="1:7">
       <c r="A366" s="12">
         <v>364</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="367" ht="37.5" spans="1:7">
+    <row r="367" ht="38.25" spans="1:7">
       <c r="A367" s="12">
         <v>365</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="368" ht="37.5" spans="1:7">
+    <row r="368" ht="38.25" spans="1:7">
       <c r="A368" s="12">
         <v>366</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="369" ht="37.5" spans="1:7">
+    <row r="369" ht="38.25" spans="1:7">
       <c r="A369" s="12">
         <v>367</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="370" ht="37.5" spans="1:7">
+    <row r="370" ht="38.25" spans="1:7">
       <c r="A370" s="12">
         <v>368</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="371" ht="37.5" spans="1:7">
+    <row r="371" ht="38.25" spans="1:7">
       <c r="A371" s="12">
         <v>369</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="372" ht="37.5" spans="1:7">
+    <row r="372" ht="38.25" spans="1:7">
       <c r="A372" s="12">
         <v>370</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="373" ht="37.5" spans="1:7">
+    <row r="373" ht="38.25" spans="1:7">
       <c r="A373" s="12">
         <v>371</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="374" ht="37.5" spans="1:7">
+    <row r="374" ht="38.25" spans="1:7">
       <c r="A374" s="12">
         <v>372</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="375" ht="25" spans="1:7">
+    <row r="375" ht="25.5" spans="1:7">
       <c r="A375" s="12">
         <v>373</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="376" ht="37.5" spans="1:7">
+    <row r="376" ht="38.25" spans="1:7">
       <c r="A376" s="12">
         <v>374</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="377" ht="25" spans="1:7">
+    <row r="377" ht="25.5" spans="1:7">
       <c r="A377" s="12">
         <v>375</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="378" ht="25" spans="1:7">
+    <row r="378" ht="25.5" spans="1:7">
       <c r="A378" s="12">
         <v>376</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="379" ht="25" spans="1:7">
+    <row r="379" ht="25.5" spans="1:7">
       <c r="A379" s="12">
         <v>377</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="380" ht="25" spans="1:7">
+    <row r="380" ht="25.5" spans="1:7">
       <c r="A380" s="12">
         <v>378</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="381" ht="25" spans="1:7">
+    <row r="381" ht="25.5" spans="1:7">
       <c r="A381" s="12">
         <v>379</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="382" ht="25" spans="1:7">
+    <row r="382" ht="25.5" spans="1:7">
       <c r="A382" s="12">
         <v>380</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="383" ht="37.5" spans="1:7">
+    <row r="383" ht="38.25" spans="1:7">
       <c r="A383" s="12">
         <v>381</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="384" ht="37.5" spans="1:7">
+    <row r="384" ht="38.25" spans="1:7">
       <c r="A384" s="12">
         <v>382</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" ht="37.5" spans="1:7">
+    <row r="385" ht="38.25" spans="1:7">
       <c r="A385" s="12">
         <v>383</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="386" ht="37.5" spans="1:7">
+    <row r="386" ht="38.25" spans="1:7">
       <c r="A386" s="12">
         <v>384</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="387" ht="37.5" spans="1:7">
+    <row r="387" ht="38.25" spans="1:7">
       <c r="A387" s="12">
         <v>385</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="388" ht="25" spans="1:7">
+    <row r="388" ht="25.5" spans="1:7">
       <c r="A388" s="12">
         <v>386</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="389" ht="150" spans="1:7">
+    <row r="389" ht="153" spans="1:7">
       <c r="A389" s="12">
         <v>387</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="390" ht="37.5" spans="1:7">
+    <row r="390" ht="38.25" spans="1:7">
       <c r="A390" s="12">
         <v>388</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="391" ht="62.5" spans="1:7">
+    <row r="391" ht="63.75" spans="1:7">
       <c r="A391" s="12">
         <v>389</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="392" ht="75" spans="1:7">
+    <row r="392" ht="76.5" spans="1:7">
       <c r="A392" s="12">
         <v>390</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="393" ht="25" spans="1:7">
+    <row r="393" ht="25.5" spans="1:7">
       <c r="A393" s="12">
         <v>391</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="394" ht="137.5" spans="1:7">
+    <row r="394" ht="140.25" spans="1:7">
       <c r="A394" s="12">
         <v>392</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="395" ht="25" spans="1:7">
+    <row r="395" ht="25.5" spans="1:7">
       <c r="A395" s="12">
         <v>393</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="396" ht="62.5" spans="1:7">
+    <row r="396" ht="63.75" spans="1:7">
       <c r="A396" s="12">
         <v>394</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="397" ht="37.5" spans="1:7">
+    <row r="397" ht="38.25" spans="1:7">
       <c r="A397" s="12">
         <v>395</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="398" ht="37.5" spans="1:7">
+    <row r="398" ht="38.25" spans="1:7">
       <c r="A398" s="12">
         <v>396</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="399" ht="125" spans="1:7">
+    <row r="399" ht="127.5" spans="1:7">
       <c r="A399" s="12">
         <v>397</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="400" ht="37.5" spans="1:7">
+    <row r="400" ht="38.25" spans="1:7">
       <c r="A400" s="12">
         <v>398</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="401" ht="75" spans="1:7">
+    <row r="401" ht="76.5" spans="1:7">
       <c r="A401" s="12">
         <v>399</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="402" ht="37.5" spans="1:7">
+    <row r="402" ht="38.25" spans="1:7">
       <c r="A402" s="12">
         <v>400</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="403" ht="37.5" spans="1:7">
+    <row r="403" ht="38.25" spans="1:7">
       <c r="A403" s="12">
         <v>401</v>
       </c>
@@ -17957,7 +17957,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="404" ht="37.5" spans="1:7">
+    <row r="404" ht="38.25" spans="1:7">
       <c r="A404" s="12">
         <v>402</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="405" ht="37.5" spans="1:7">
+    <row r="405" ht="38.25" spans="1:7">
       <c r="A405" s="12">
         <v>403</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="406" ht="37.5" spans="1:7">
+    <row r="406" ht="38.25" spans="1:7">
       <c r="A406" s="12">
         <v>404</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="407" ht="37.5" spans="1:7">
+    <row r="407" ht="38.25" spans="1:7">
       <c r="A407" s="12">
         <v>405</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="408" ht="25" spans="1:7">
+    <row r="408" ht="25.5" spans="1:7">
       <c r="A408" s="12">
         <v>406</v>
       </c>
@@ -18072,7 +18072,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="409" ht="37.5" spans="1:7">
+    <row r="409" ht="38.25" spans="1:7">
       <c r="A409" s="12">
         <v>407</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="410" ht="25" spans="1:7">
+    <row r="410" ht="25.5" spans="1:7">
       <c r="A410" s="12">
         <v>408</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="411" ht="37.5" spans="1:7">
+    <row r="411" ht="38.25" spans="1:7">
       <c r="A411" s="12">
         <v>409</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" ht="25" spans="1:7">
+    <row r="412" ht="25.5" spans="1:7">
       <c r="A412" s="12">
         <v>410</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="413" ht="75" spans="1:7">
+    <row r="413" ht="76.5" spans="1:7">
       <c r="A413" s="12">
         <v>411</v>
       </c>
@@ -18185,7 +18185,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="414" ht="37.5" spans="1:7">
+    <row r="414" ht="38.25" spans="1:7">
       <c r="A414" s="12">
         <v>412</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="415" ht="25" spans="1:7">
+    <row r="415" ht="25.5" spans="1:7">
       <c r="A415" s="12">
         <v>413</v>
       </c>
@@ -18229,7 +18229,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="416" ht="75" spans="1:7">
+    <row r="416" ht="76.5" spans="1:7">
       <c r="A416" s="12">
         <v>414</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="417" ht="37.5" spans="1:7">
+    <row r="417" ht="38.25" spans="1:7">
       <c r="A417" s="12">
         <v>415</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="418" ht="37.5" spans="1:7">
+    <row r="418" ht="38.25" spans="1:7">
       <c r="A418" s="12">
         <v>416</v>
       </c>
@@ -18298,7 +18298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="419" ht="37.5" spans="1:7">
+    <row r="419" ht="38.25" spans="1:7">
       <c r="A419" s="12">
         <v>417</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="420" ht="37.5" spans="1:7">
+    <row r="420" ht="38.25" spans="1:7">
       <c r="A420" s="12">
         <v>418</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="421" ht="37.5" spans="1:7">
+    <row r="421" ht="38.25" spans="1:7">
       <c r="A421" s="12">
         <v>419</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="422" ht="37.5" spans="1:7">
+    <row r="422" ht="38.25" spans="1:7">
       <c r="A422" s="12">
         <v>420</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="423" ht="37.5" spans="1:7">
+    <row r="423" ht="38.25" spans="1:7">
       <c r="A423" s="12">
         <v>421</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="424" ht="37.5" spans="1:7">
+    <row r="424" ht="38.25" spans="1:7">
       <c r="A424" s="12">
         <v>422</v>
       </c>
@@ -18436,7 +18436,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="425" ht="25" spans="1:7">
+    <row r="425" ht="25.5" spans="1:7">
       <c r="A425" s="12">
         <v>423</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="426" ht="25" spans="1:7">
+    <row r="426" ht="25.5" spans="1:7">
       <c r="A426" s="12">
         <v>424</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="427" ht="25" spans="1:7">
+    <row r="427" ht="25.5" spans="1:7">
       <c r="A427" s="12">
         <v>425</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="428" ht="25" spans="1:7">
+    <row r="428" ht="25.5" spans="1:7">
       <c r="A428" s="12">
         <v>426</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="429" ht="25" spans="1:7">
+    <row r="429" ht="25.5" spans="1:7">
       <c r="A429" s="12">
         <v>427</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="430" ht="25" spans="1:7">
+    <row r="430" ht="25.5" spans="1:7">
       <c r="A430" s="12">
         <v>428</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="431" ht="25" spans="1:7">
+    <row r="431" ht="25.5" spans="1:7">
       <c r="A431" s="12">
         <v>429</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="432" ht="37.5" spans="1:7">
+    <row r="432" ht="38.25" spans="1:7">
       <c r="A432" s="12">
         <v>430</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="433" ht="37.5" spans="1:7">
+    <row r="433" ht="38.25" spans="1:7">
       <c r="A433" s="12">
         <v>431</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="434" ht="37.5" spans="1:7">
+    <row r="434" ht="38.25" spans="1:7">
       <c r="A434" s="12">
         <v>432</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="435" ht="37.5" spans="1:7">
+    <row r="435" ht="38.25" spans="1:7">
       <c r="A435" s="12">
         <v>433</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="436" ht="37.5" spans="1:7">
+    <row r="436" ht="38.25" spans="1:7">
       <c r="A436" s="12">
         <v>434</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="437" ht="37.5" spans="1:7">
+    <row r="437" ht="38.25" spans="1:7">
       <c r="A437" s="12">
         <v>435</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="438" ht="37.5" spans="1:7">
+    <row r="438" ht="38.25" spans="1:7">
       <c r="A438" s="12">
         <v>436</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" ht="37.5" spans="1:7">
+    <row r="439" ht="38.25" spans="1:7">
       <c r="A439" s="12">
         <v>437</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="440" ht="62.5" spans="1:7">
+    <row r="440" ht="63.75" spans="1:7">
       <c r="A440" s="12">
         <v>438</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="441" ht="37.5" spans="1:7">
+    <row r="441" ht="38.25" spans="1:7">
       <c r="A441" s="12">
         <v>439</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="442" ht="50" spans="1:7">
+    <row r="442" ht="51" spans="1:7">
       <c r="A442" s="12">
         <v>440</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="443" ht="37.5" spans="1:7">
+    <row r="443" ht="38.25" spans="1:7">
       <c r="A443" s="12">
         <v>441</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="444" ht="37.5" spans="1:7">
+    <row r="444" ht="38.25" spans="1:7">
       <c r="A444" s="12">
         <v>442</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="445" ht="37.5" spans="1:7">
+    <row r="445" ht="38.25" spans="1:7">
       <c r="A445" s="12">
         <v>443</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="446" ht="37.5" spans="1:7">
+    <row r="446" ht="38.25" spans="1:7">
       <c r="A446" s="12">
         <v>444</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="447" ht="25" spans="1:7">
+    <row r="447" ht="25.5" spans="1:7">
       <c r="A447" s="12">
         <v>445</v>
       </c>
@@ -18949,7 +18949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="448" ht="62.5" spans="1:7">
+    <row r="448" ht="63.75" spans="1:7">
       <c r="A448" s="12">
         <v>446</v>
       </c>
@@ -18972,7 +18972,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="449" ht="62.5" spans="1:7">
+    <row r="449" ht="63.75" spans="1:7">
       <c r="A449" s="12">
         <v>447</v>
       </c>
@@ -18995,7 +18995,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="450" ht="62.5" spans="1:7">
+    <row r="450" ht="63.75" spans="1:7">
       <c r="A450" s="12">
         <v>448</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="451" ht="62.5" spans="1:7">
+    <row r="451" ht="63.75" spans="1:7">
       <c r="A451" s="12">
         <v>449</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="452" ht="62.5" spans="1:7">
+    <row r="452" ht="63.75" spans="1:7">
       <c r="A452" s="12">
         <v>450</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="453" ht="62.5" spans="1:7">
+    <row r="453" ht="63.75" spans="1:7">
       <c r="A453" s="12">
         <v>451</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="454" ht="62.5" spans="1:7">
+    <row r="454" ht="63.75" spans="1:7">
       <c r="A454" s="12">
         <v>452</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="455" ht="62.5" spans="1:7">
+    <row r="455" ht="63.75" spans="1:7">
       <c r="A455" s="12">
         <v>453</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="456" ht="62.5" spans="1:7">
+    <row r="456" ht="63.75" spans="1:7">
       <c r="A456" s="12">
         <v>454</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="457" ht="62.5" spans="1:7">
+    <row r="457" ht="63.75" spans="1:7">
       <c r="A457" s="12">
         <v>455</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="458" ht="62.5" spans="1:7">
+    <row r="458" ht="63.75" spans="1:7">
       <c r="A458" s="12">
         <v>456</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="459" ht="62.5" spans="1:7">
+    <row r="459" ht="63.75" spans="1:7">
       <c r="A459" s="12">
         <v>457</v>
       </c>
@@ -19225,7 +19225,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="460" ht="62.5" spans="1:7">
+    <row r="460" ht="63.75" spans="1:7">
       <c r="A460" s="12">
         <v>458</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="461" ht="62.5" spans="1:7">
+    <row r="461" ht="63.75" spans="1:7">
       <c r="A461" s="12">
         <v>459</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="462" ht="62.5" spans="1:7">
+    <row r="462" ht="63.75" spans="1:7">
       <c r="A462" s="12">
         <v>460</v>
       </c>
@@ -19294,7 +19294,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="463" ht="62.5" spans="1:7">
+    <row r="463" ht="63.75" spans="1:7">
       <c r="A463" s="12">
         <v>461</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="464" ht="62.5" spans="1:7">
+    <row r="464" ht="63.75" spans="1:7">
       <c r="A464" s="12">
         <v>462</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="465" ht="62.5" spans="1:7">
+    <row r="465" ht="63.75" spans="1:7">
       <c r="A465" s="12">
         <v>463</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="466" ht="62.5" spans="1:7">
+    <row r="466" ht="63.75" spans="1:7">
       <c r="A466" s="12">
         <v>464</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="467" ht="62.5" spans="1:7">
+    <row r="467" ht="63.75" spans="1:7">
       <c r="A467" s="12">
         <v>465</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="468" ht="62.5" spans="1:7">
+    <row r="468" ht="63.75" spans="1:7">
       <c r="A468" s="12">
         <v>466</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="469" ht="62.5" spans="1:7">
+    <row r="469" ht="63.75" spans="1:7">
       <c r="A469" s="12">
         <v>467</v>
       </c>
@@ -19455,7 +19455,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="470" ht="62.5" spans="1:7">
+    <row r="470" ht="63.75" spans="1:7">
       <c r="A470" s="12">
         <v>468</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="471" ht="62.5" spans="1:7">
+    <row r="471" ht="63.75" spans="1:7">
       <c r="A471" s="12">
         <v>469</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="472" ht="62.5" spans="1:7">
+    <row r="472" ht="63.75" spans="1:7">
       <c r="A472" s="12">
         <v>470</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="473" ht="62.5" spans="1:7">
+    <row r="473" ht="63.75" spans="1:7">
       <c r="A473" s="12">
         <v>471</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="474" ht="62.5" spans="1:7">
+    <row r="474" ht="63.75" spans="1:7">
       <c r="A474" s="12">
         <v>472</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="475" ht="62.5" spans="1:7">
+    <row r="475" ht="63.75" spans="1:7">
       <c r="A475" s="12">
         <v>473</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="476" ht="62.5" spans="1:7">
+    <row r="476" ht="63.75" spans="1:7">
       <c r="A476" s="12">
         <v>474</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="477" ht="62.5" spans="1:7">
+    <row r="477" ht="63.75" spans="1:7">
       <c r="A477" s="12">
         <v>475</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="478" ht="62.5" spans="1:7">
+    <row r="478" ht="63.75" spans="1:7">
       <c r="A478" s="12">
         <v>476</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="479" ht="62.5" spans="1:7">
+    <row r="479" ht="63.75" spans="1:7">
       <c r="A479" s="12">
         <v>477</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="480" ht="62.5" spans="1:7">
+    <row r="480" ht="63.75" spans="1:7">
       <c r="A480" s="12">
         <v>478</v>
       </c>
@@ -19708,7 +19708,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="481" ht="62.5" spans="1:7">
+    <row r="481" ht="63.75" spans="1:7">
       <c r="A481" s="12">
         <v>479</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="482" ht="62.5" spans="1:7">
+    <row r="482" ht="63.75" spans="1:7">
       <c r="A482" s="12">
         <v>480</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="483" ht="62.5" spans="1:7">
+    <row r="483" ht="63.75" spans="1:7">
       <c r="A483" s="12">
         <v>481</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="484" ht="62.5" spans="1:7">
+    <row r="484" ht="63.75" spans="1:7">
       <c r="A484" s="12">
         <v>482</v>
       </c>
@@ -19800,7 +19800,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="485" ht="62.5" spans="1:7">
+    <row r="485" ht="63.75" spans="1:7">
       <c r="A485" s="12">
         <v>483</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="486" ht="62.5" spans="1:7">
+    <row r="486" ht="63.75" spans="1:7">
       <c r="A486" s="12">
         <v>484</v>
       </c>
@@ -19846,7 +19846,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="487" ht="62.5" spans="1:7">
+    <row r="487" ht="63.75" spans="1:7">
       <c r="A487" s="12">
         <v>485</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="488" ht="62.5" spans="1:7">
+    <row r="488" ht="63.75" spans="1:7">
       <c r="A488" s="12">
         <v>486</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="489" ht="62.5" spans="1:7">
+    <row r="489" ht="63.75" spans="1:7">
       <c r="A489" s="12">
         <v>487</v>
       </c>
@@ -19915,7 +19915,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="490" ht="62.5" spans="1:7">
+    <row r="490" ht="63.75" spans="1:7">
       <c r="A490" s="12">
         <v>488</v>
       </c>
@@ -19938,7 +19938,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="491" ht="62.5" spans="1:7">
+    <row r="491" ht="63.75" spans="1:7">
       <c r="A491" s="12">
         <v>489</v>
       </c>
@@ -19961,7 +19961,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="492" ht="62.5" spans="1:7">
+    <row r="492" ht="63.75" spans="1:7">
       <c r="A492" s="12">
         <v>490</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="493" ht="62.5" spans="1:7">
+    <row r="493" ht="63.75" spans="1:7">
       <c r="A493" s="12">
         <v>491</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="494" ht="62.5" spans="1:7">
+    <row r="494" ht="63.75" spans="1:7">
       <c r="A494" s="12">
         <v>492</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="495" ht="62.5" spans="1:7">
+    <row r="495" ht="63.75" spans="1:7">
       <c r="A495" s="12">
         <v>493</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="496" ht="62.5" spans="1:7">
+    <row r="496" ht="63.75" spans="1:7">
       <c r="A496" s="12">
         <v>494</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="497" ht="62.5" spans="1:7">
+    <row r="497" ht="63.75" spans="1:7">
       <c r="A497" s="12">
         <v>495</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="498" ht="62.5" spans="1:7">
+    <row r="498" ht="63.75" spans="1:7">
       <c r="A498" s="12">
         <v>496</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="499" ht="62.5" spans="1:7">
+    <row r="499" ht="63.75" spans="1:7">
       <c r="A499" s="12">
         <v>497</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="500" ht="62.5" spans="1:7">
+    <row r="500" ht="63.75" spans="1:7">
       <c r="A500" s="12">
         <v>498</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="501" ht="62.5" spans="1:7">
+    <row r="501" ht="63.75" spans="1:7">
       <c r="A501" s="12">
         <v>499</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="502" ht="62.5" spans="1:7">
+    <row r="502" ht="63.75" spans="1:7">
       <c r="A502" s="12">
         <v>500</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="503" ht="62.5" spans="1:7">
+    <row r="503" ht="63.75" spans="1:7">
       <c r="A503" s="12">
         <v>501</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="504" ht="62.5" spans="1:7">
+    <row r="504" ht="63.75" spans="1:7">
       <c r="A504" s="12">
         <v>502</v>
       </c>
@@ -20260,7 +20260,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="505" ht="62.5" spans="1:7">
+    <row r="505" ht="63.75" spans="1:7">
       <c r="A505" s="12">
         <v>503</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="506" ht="62.5" spans="1:7">
+    <row r="506" ht="63.75" spans="1:7">
       <c r="A506" s="12">
         <v>504</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="507" ht="62.5" spans="1:7">
+    <row r="507" ht="63.75" spans="1:7">
       <c r="A507" s="12">
         <v>505</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="508" ht="62.5" spans="1:7">
+    <row r="508" ht="63.75" spans="1:7">
       <c r="A508" s="12">
         <v>506</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="509" ht="62.5" spans="1:7">
+    <row r="509" ht="63.75" spans="1:7">
       <c r="A509" s="12">
         <v>507</v>
       </c>
@@ -20375,7 +20375,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="510" ht="62.5" spans="1:7">
+    <row r="510" ht="63.75" spans="1:7">
       <c r="A510" s="12">
         <v>508</v>
       </c>
@@ -20398,7 +20398,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="511" ht="62.5" spans="1:7">
+    <row r="511" ht="63.75" spans="1:7">
       <c r="A511" s="12">
         <v>509</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="512" ht="62.5" spans="1:7">
+    <row r="512" ht="63.75" spans="1:7">
       <c r="A512" s="12">
         <v>510</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="513" ht="62.5" spans="1:7">
+    <row r="513" ht="63.75" spans="1:7">
       <c r="A513" s="12">
         <v>511</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="514" ht="62.5" spans="1:7">
+    <row r="514" ht="63.75" spans="1:7">
       <c r="A514" s="12">
         <v>512</v>
       </c>
@@ -20490,7 +20490,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="515" ht="62.5" spans="1:7">
+    <row r="515" ht="63.75" spans="1:7">
       <c r="A515" s="12">
         <v>513</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="516" ht="62.5" spans="1:7">
+    <row r="516" ht="63.75" spans="1:7">
       <c r="A516" s="12">
         <v>514</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="517" ht="62.5" spans="1:7">
+    <row r="517" ht="63.75" spans="1:7">
       <c r="A517" s="12">
         <v>515</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="518" ht="62.5" spans="1:7">
+    <row r="518" ht="63.75" spans="1:7">
       <c r="A518" s="12">
         <v>516</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="519" ht="62.5" spans="1:7">
+    <row r="519" ht="63.75" spans="1:7">
       <c r="A519" s="12">
         <v>517</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="520" ht="62.5" spans="1:7">
+    <row r="520" ht="63.75" spans="1:7">
       <c r="A520" s="12">
         <v>518</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="521" ht="62.5" spans="1:7">
+    <row r="521" ht="63.75" spans="1:7">
       <c r="A521" s="12">
         <v>519</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="522" ht="62.5" spans="1:7">
+    <row r="522" ht="63.75" spans="1:7">
       <c r="A522" s="12">
         <v>520</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="523" ht="62.5" spans="1:7">
+    <row r="523" ht="63.75" spans="1:7">
       <c r="A523" s="12">
         <v>521</v>
       </c>
@@ -20697,7 +20697,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="524" ht="62.5" spans="1:7">
+    <row r="524" ht="63.75" spans="1:7">
       <c r="A524" s="12">
         <v>522</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="525" ht="62.5" spans="1:7">
+    <row r="525" ht="63.75" spans="1:7">
       <c r="A525" s="12">
         <v>523</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="526" ht="62.5" spans="1:7">
+    <row r="526" ht="63.75" spans="1:7">
       <c r="A526" s="12">
         <v>524</v>
       </c>
@@ -20766,7 +20766,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="527" ht="62.5" spans="1:7">
+    <row r="527" ht="63.75" spans="1:7">
       <c r="A527" s="12">
         <v>525</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="528" ht="62.5" spans="1:7">
+    <row r="528" ht="63.75" spans="1:7">
       <c r="A528" s="12">
         <v>526</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="529" ht="62.5" spans="1:7">
+    <row r="529" ht="63.75" spans="1:7">
       <c r="A529" s="12">
         <v>527</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="530" ht="62.5" spans="1:7">
+    <row r="530" ht="63.75" spans="1:7">
       <c r="A530" s="12">
         <v>528</v>
       </c>
@@ -20858,7 +20858,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="531" ht="62.5" spans="1:7">
+    <row r="531" ht="63.75" spans="1:7">
       <c r="A531" s="12">
         <v>529</v>
       </c>
@@ -20881,7 +20881,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="532" ht="62.5" spans="1:7">
+    <row r="532" ht="63.75" spans="1:7">
       <c r="A532" s="12">
         <v>530</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="533" ht="62.5" spans="1:7">
+    <row r="533" ht="63.75" spans="1:7">
       <c r="A533" s="12">
         <v>531</v>
       </c>
@@ -20927,7 +20927,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="534" ht="62.5" spans="1:7">
+    <row r="534" ht="63.75" spans="1:7">
       <c r="A534" s="12">
         <v>532</v>
       </c>
@@ -20950,7 +20950,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="535" ht="62.5" spans="1:7">
+    <row r="535" ht="63.75" spans="1:7">
       <c r="A535" s="12">
         <v>533</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="536" ht="62.5" spans="1:7">
+    <row r="536" ht="63.75" spans="1:7">
       <c r="A536" s="12">
         <v>534</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="537" ht="62.5" spans="1:7">
+    <row r="537" ht="63.75" spans="1:7">
       <c r="A537" s="12">
         <v>535</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="538" ht="62.5" spans="1:7">
+    <row r="538" ht="63.75" spans="1:7">
       <c r="A538" s="12">
         <v>536</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="539" ht="62.5" spans="1:7">
+    <row r="539" ht="63.75" spans="1:7">
       <c r="A539" s="12">
         <v>537</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="540" ht="62.5" spans="1:7">
+    <row r="540" ht="63.75" spans="1:7">
       <c r="A540" s="12">
         <v>538</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="541" ht="62.5" spans="1:7">
+    <row r="541" ht="63.75" spans="1:7">
       <c r="A541" s="12">
         <v>539</v>
       </c>
@@ -21111,7 +21111,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="542" ht="62.5" spans="1:7">
+    <row r="542" ht="63.75" spans="1:7">
       <c r="A542" s="12">
         <v>540</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="543" ht="62.5" spans="1:7">
+    <row r="543" ht="63.75" spans="1:7">
       <c r="A543" s="12">
         <v>541</v>
       </c>
@@ -21157,7 +21157,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="544" ht="62.5" spans="1:7">
+    <row r="544" ht="63.75" spans="1:7">
       <c r="A544" s="12">
         <v>542</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="545" ht="62.5" spans="1:7">
+    <row r="545" ht="63.75" spans="1:7">
       <c r="A545" s="12">
         <v>543</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="546" ht="62.5" spans="1:7">
+    <row r="546" ht="63.75" spans="1:7">
       <c r="A546" s="12">
         <v>544</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="547" ht="62.5" spans="1:7">
+    <row r="547" ht="63.75" spans="1:7">
       <c r="A547" s="12">
         <v>545</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="548" ht="62.5" spans="1:7">
+    <row r="548" ht="63.75" spans="1:7">
       <c r="A548" s="12">
         <v>546</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="549" ht="62.5" spans="1:7">
+    <row r="549" ht="63.75" spans="1:7">
       <c r="A549" s="12">
         <v>547</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="550" ht="62.5" spans="1:7">
+    <row r="550" ht="63.75" spans="1:7">
       <c r="A550" s="12">
         <v>548</v>
       </c>
@@ -21318,7 +21318,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="551" ht="62.5" spans="1:7">
+    <row r="551" ht="63.75" spans="1:7">
       <c r="A551" s="12">
         <v>549</v>
       </c>
@@ -21341,7 +21341,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="552" ht="62.5" spans="1:7">
+    <row r="552" ht="63.75" spans="1:7">
       <c r="A552" s="12">
         <v>550</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="553" ht="62.5" spans="1:7">
+    <row r="553" ht="63.75" spans="1:7">
       <c r="A553" s="12">
         <v>551</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="554" ht="62.5" spans="1:7">
+    <row r="554" ht="63.75" spans="1:7">
       <c r="A554" s="12">
         <v>552</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="555" ht="62.5" spans="1:7">
+    <row r="555" ht="63.75" spans="1:7">
       <c r="A555" s="12">
         <v>553</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="556" ht="62.5" spans="1:7">
+    <row r="556" ht="63.75" spans="1:7">
       <c r="A556" s="12">
         <v>554</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="557" ht="62.5" spans="1:7">
+    <row r="557" ht="63.75" spans="1:7">
       <c r="A557" s="12">
         <v>555</v>
       </c>
@@ -21479,7 +21479,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="558" ht="62.5" spans="1:7">
+    <row r="558" ht="63.75" spans="1:7">
       <c r="A558" s="12">
         <v>556</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="559" ht="62.5" spans="1:7">
+    <row r="559" ht="63.75" spans="1:7">
       <c r="A559" s="12">
         <v>557</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="560" ht="62.5" spans="1:7">
+    <row r="560" ht="63.75" spans="1:7">
       <c r="A560" s="12">
         <v>558</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="561" ht="62.5" spans="1:7">
+    <row r="561" ht="63.75" spans="1:7">
       <c r="A561" s="12">
         <v>559</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="562" ht="62.5" spans="1:7">
+    <row r="562" ht="63.75" spans="1:7">
       <c r="A562" s="12">
         <v>560</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="563" ht="62.5" spans="1:7">
+    <row r="563" ht="63.75" spans="1:7">
       <c r="A563" s="12">
         <v>561</v>
       </c>
@@ -21617,7 +21617,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="564" ht="62.5" spans="1:7">
+    <row r="564" ht="63.75" spans="1:7">
       <c r="A564" s="12">
         <v>562</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="565" ht="62.5" spans="1:7">
+    <row r="565" ht="63.75" spans="1:7">
       <c r="A565" s="12">
         <v>563</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="566" ht="62.5" spans="1:7">
+    <row r="566" ht="63.75" spans="1:7">
       <c r="A566" s="12">
         <v>564</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="567" ht="62.5" spans="1:7">
+    <row r="567" ht="63.75" spans="1:7">
       <c r="A567" s="12">
         <v>565</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="568" ht="62.5" spans="1:7">
+    <row r="568" ht="63.75" spans="1:7">
       <c r="A568" s="12">
         <v>566</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="569" ht="62.5" spans="1:7">
+    <row r="569" ht="63.75" spans="1:7">
       <c r="A569" s="12">
         <v>567</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="570" ht="62.5" spans="1:7">
+    <row r="570" ht="63.75" spans="1:7">
       <c r="A570" s="12">
         <v>568</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="571" ht="62.5" spans="1:7">
+    <row r="571" ht="63.75" spans="1:7">
       <c r="A571" s="12">
         <v>569</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="572" ht="62.5" spans="1:7">
+    <row r="572" ht="63.75" spans="1:7">
       <c r="A572" s="12">
         <v>570</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="573" ht="62.5" spans="1:7">
+    <row r="573" ht="63.75" spans="1:7">
       <c r="A573" s="12">
         <v>571</v>
       </c>
@@ -21847,7 +21847,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="574" ht="62.5" spans="1:7">
+    <row r="574" ht="63.75" spans="1:7">
       <c r="A574" s="12">
         <v>572</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="575" ht="62.5" spans="1:7">
+    <row r="575" ht="63.75" spans="1:7">
       <c r="A575" s="12">
         <v>573</v>
       </c>
@@ -21893,7 +21893,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="576" ht="62.5" spans="1:7">
+    <row r="576" ht="63.75" spans="1:7">
       <c r="A576" s="12">
         <v>574</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="577" ht="62.5" spans="1:7">
+    <row r="577" ht="63.75" spans="1:7">
       <c r="A577" s="12">
         <v>575</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="578" ht="62.5" spans="1:7">
+    <row r="578" ht="63.75" spans="1:7">
       <c r="A578" s="12">
         <v>576</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="579" ht="62.5" spans="1:7">
+    <row r="579" ht="63.75" spans="1:7">
       <c r="A579" s="12">
         <v>577</v>
       </c>
@@ -21985,7 +21985,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="580" ht="62.5" spans="1:7">
+    <row r="580" ht="63.75" spans="1:7">
       <c r="A580" s="12">
         <v>578</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="581" ht="62.5" spans="1:7">
+    <row r="581" ht="63.75" spans="1:7">
       <c r="A581" s="12">
         <v>579</v>
       </c>
@@ -22031,7 +22031,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="582" ht="62.5" spans="1:7">
+    <row r="582" ht="63.75" spans="1:7">
       <c r="A582" s="12">
         <v>580</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="583" ht="62.5" spans="1:7">
+    <row r="583" ht="63.75" spans="1:7">
       <c r="A583" s="12">
         <v>581</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="584" ht="62.5" spans="1:7">
+    <row r="584" ht="63.75" spans="1:7">
       <c r="A584" s="12">
         <v>582</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="585" ht="62.5" spans="1:7">
+    <row r="585" ht="63.75" spans="1:7">
       <c r="A585" s="12">
         <v>583</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="586" ht="62.5" spans="1:7">
+    <row r="586" ht="63.75" spans="1:7">
       <c r="A586" s="12">
         <v>584</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="587" ht="62.5" spans="1:7">
+    <row r="587" ht="63.75" spans="1:7">
       <c r="A587" s="12">
         <v>585</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="588" ht="62.5" spans="1:7">
+    <row r="588" ht="63.75" spans="1:7">
       <c r="A588" s="12">
         <v>586</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="589" ht="62.5" spans="1:7">
+    <row r="589" ht="63.75" spans="1:7">
       <c r="A589" s="12">
         <v>587</v>
       </c>
@@ -22215,7 +22215,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="590" ht="62.5" spans="1:7">
+    <row r="590" ht="63.75" spans="1:7">
       <c r="A590" s="12">
         <v>588</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="591" ht="62.5" spans="1:7">
+    <row r="591" ht="63.75" spans="1:7">
       <c r="A591" s="12">
         <v>589</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="592" ht="62.5" spans="1:7">
+    <row r="592" ht="63.75" spans="1:7">
       <c r="A592" s="12">
         <v>590</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="593" ht="62.5" spans="1:7">
+    <row r="593" ht="63.75" spans="1:7">
       <c r="A593" s="12">
         <v>591</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="594" ht="62.5" spans="1:7">
+    <row r="594" ht="63.75" spans="1:7">
       <c r="A594" s="12">
         <v>592</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="595" ht="62.5" spans="1:7">
+    <row r="595" ht="63.75" spans="1:7">
       <c r="A595" s="12">
         <v>593</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="596" ht="62.5" spans="1:7">
+    <row r="596" ht="63.75" spans="1:7">
       <c r="A596" s="12">
         <v>594</v>
       </c>
@@ -22376,7 +22376,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="597" ht="62.5" spans="1:7">
+    <row r="597" ht="63.75" spans="1:7">
       <c r="A597" s="12">
         <v>595</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="598" ht="62.5" spans="1:7">
+    <row r="598" ht="63.75" spans="1:7">
       <c r="A598" s="12">
         <v>596</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="599" ht="62.5" spans="1:7">
+    <row r="599" ht="63.75" spans="1:7">
       <c r="A599" s="12">
         <v>597</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="600" ht="62.5" spans="1:7">
+    <row r="600" ht="63.75" spans="1:7">
       <c r="A600" s="12">
         <v>598</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="601" ht="62.5" spans="1:7">
+    <row r="601" ht="63.75" spans="1:7">
       <c r="A601" s="12">
         <v>599</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="602" ht="62.5" spans="1:7">
+    <row r="602" ht="63.75" spans="1:7">
       <c r="A602" s="12">
         <v>600</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="603" ht="62.5" spans="1:7">
+    <row r="603" ht="63.75" spans="1:7">
       <c r="A603" s="12">
         <v>601</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="604" ht="62.5" spans="1:7">
+    <row r="604" ht="63.75" spans="1:7">
       <c r="A604" s="12">
         <v>602</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="605" ht="62.5" spans="1:7">
+    <row r="605" ht="63.75" spans="1:7">
       <c r="A605" s="12">
         <v>603</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="606" ht="62.5" spans="1:7">
+    <row r="606" ht="63.75" spans="1:7">
       <c r="A606" s="12">
         <v>604</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="607" ht="62.5" spans="1:7">
+    <row r="607" ht="63.75" spans="1:7">
       <c r="A607" s="12">
         <v>605</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="608" ht="62.5" spans="1:7">
+    <row r="608" ht="63.75" spans="1:7">
       <c r="A608" s="12">
         <v>606</v>
       </c>
@@ -22652,7 +22652,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="609" ht="62.5" spans="1:7">
+    <row r="609" ht="63.75" spans="1:7">
       <c r="A609" s="12">
         <v>607</v>
       </c>
@@ -22675,7 +22675,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="610" ht="62.5" spans="1:7">
+    <row r="610" ht="63.75" spans="1:7">
       <c r="A610" s="12">
         <v>608</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="611" ht="62.5" spans="1:7">
+    <row r="611" ht="63.75" spans="1:7">
       <c r="A611" s="12">
         <v>609</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="612" ht="62.5" spans="1:7">
+    <row r="612" ht="63.75" spans="1:7">
       <c r="A612" s="12">
         <v>610</v>
       </c>
@@ -22744,7 +22744,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="613" ht="62.5" spans="1:7">
+    <row r="613" ht="63.75" spans="1:7">
       <c r="A613" s="12">
         <v>611</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="614" ht="62.5" spans="1:7">
+    <row r="614" ht="63.75" spans="1:7">
       <c r="A614" s="12">
         <v>612</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="615" ht="62.5" spans="1:7">
+    <row r="615" ht="63.75" spans="1:7">
       <c r="A615" s="12">
         <v>613</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="616" ht="62.5" spans="1:7">
+    <row r="616" ht="63.75" spans="1:7">
       <c r="A616" s="12">
         <v>614</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="617" ht="62.5" spans="1:7">
+    <row r="617" ht="63.75" spans="1:7">
       <c r="A617" s="12">
         <v>615</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="618" ht="62.5" spans="1:7">
+    <row r="618" ht="63.75" spans="1:7">
       <c r="A618" s="12">
         <v>616</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="619" ht="62.5" spans="1:7">
+    <row r="619" ht="63.75" spans="1:7">
       <c r="A619" s="12">
         <v>617</v>
       </c>
@@ -22905,7 +22905,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="620" ht="62.5" spans="1:7">
+    <row r="620" ht="63.75" spans="1:7">
       <c r="A620" s="12">
         <v>618</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="621" ht="62.5" spans="1:7">
+    <row r="621" ht="63.75" spans="1:7">
       <c r="A621" s="12">
         <v>619</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="622" ht="62.5" spans="1:7">
+    <row r="622" ht="63.75" spans="1:7">
       <c r="A622" s="12">
         <v>620</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="623" ht="62.5" spans="1:7">
+    <row r="623" ht="63.75" spans="1:7">
       <c r="A623" s="12">
         <v>621</v>
       </c>
@@ -22997,7 +22997,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="624" ht="62.5" spans="1:7">
+    <row r="624" ht="63.75" spans="1:7">
       <c r="A624" s="12">
         <v>622</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="625" ht="62.5" spans="1:7">
+    <row r="625" ht="63.75" spans="1:7">
       <c r="A625" s="12">
         <v>623</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="626" ht="62.5" spans="1:7">
+    <row r="626" ht="63.75" spans="1:7">
       <c r="A626" s="12">
         <v>624</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="627" ht="62.5" spans="1:7">
+    <row r="627" ht="63.75" spans="1:7">
       <c r="A627" s="12">
         <v>625</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="628" ht="62.5" spans="1:7">
+    <row r="628" ht="63.75" spans="1:7">
       <c r="A628" s="12">
         <v>626</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="629" ht="62.5" spans="1:7">
+    <row r="629" ht="63.75" spans="1:7">
       <c r="A629" s="12">
         <v>627</v>
       </c>
@@ -23135,7 +23135,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="630" ht="62.5" spans="1:7">
+    <row r="630" ht="63.75" spans="1:7">
       <c r="A630" s="12">
         <v>628</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="631" ht="62.5" spans="1:7">
+    <row r="631" ht="63.75" spans="1:7">
       <c r="A631" s="12">
         <v>629</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="632" ht="62.5" spans="1:7">
+    <row r="632" ht="63.75" spans="1:7">
       <c r="A632" s="12">
         <v>630</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="633" ht="62.5" spans="1:7">
+    <row r="633" ht="63.75" spans="1:7">
       <c r="A633" s="12">
         <v>631</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="634" ht="62.5" spans="1:7">
+    <row r="634" ht="63.75" spans="1:7">
       <c r="A634" s="12">
         <v>632</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="635" ht="62.5" spans="1:7">
+    <row r="635" ht="63.75" spans="1:7">
       <c r="A635" s="12">
         <v>633</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="636" ht="62.5" spans="1:7">
+    <row r="636" ht="63.75" spans="1:7">
       <c r="A636" s="12">
         <v>634</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="637" ht="62.5" spans="1:7">
+    <row r="637" ht="63.75" spans="1:7">
       <c r="A637" s="12">
         <v>635</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="638" ht="62.5" spans="1:7">
+    <row r="638" ht="63.75" spans="1:7">
       <c r="A638" s="12">
         <v>636</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="639" ht="62.5" spans="1:7">
+    <row r="639" ht="63.75" spans="1:7">
       <c r="A639" s="12">
         <v>637</v>
       </c>
@@ -23365,7 +23365,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="640" ht="62.5" spans="1:7">
+    <row r="640" ht="63.75" spans="1:7">
       <c r="A640" s="12">
         <v>638</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="641" ht="62.5" spans="1:7">
+    <row r="641" ht="63.75" spans="1:7">
       <c r="A641" s="12">
         <v>639</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="642" ht="62.5" spans="1:7">
+    <row r="642" ht="63.75" spans="1:7">
       <c r="A642" s="12">
         <v>640</v>
       </c>
@@ -23434,7 +23434,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="643" ht="62.5" spans="1:7">
+    <row r="643" ht="63.75" spans="1:7">
       <c r="A643" s="12">
         <v>641</v>
       </c>
@@ -23457,7 +23457,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="644" ht="62.5" spans="1:7">
+    <row r="644" ht="63.75" spans="1:7">
       <c r="A644" s="12">
         <v>642</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="645" ht="62.5" spans="1:7">
+    <row r="645" ht="63.75" spans="1:7">
       <c r="A645" s="12">
         <v>643</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="646" ht="62.5" spans="1:7">
+    <row r="646" ht="63.75" spans="1:7">
       <c r="A646" s="12">
         <v>644</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="647" ht="62.5" spans="1:7">
+    <row r="647" ht="63.75" spans="1:7">
       <c r="A647" s="12">
         <v>645</v>
       </c>
@@ -23549,7 +23549,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="648" ht="62.5" spans="1:7">
+    <row r="648" ht="63.75" spans="1:7">
       <c r="A648" s="12">
         <v>646</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="649" ht="62.5" spans="1:7">
+    <row r="649" ht="63.75" spans="1:7">
       <c r="A649" s="12">
         <v>647</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="650" ht="62.5" spans="1:7">
+    <row r="650" ht="63.75" spans="1:7">
       <c r="A650" s="12">
         <v>648</v>
       </c>
@@ -23618,7 +23618,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="651" ht="62.5" spans="1:7">
+    <row r="651" ht="63.75" spans="1:7">
       <c r="A651" s="12">
         <v>649</v>
       </c>
@@ -23641,7 +23641,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="652" ht="62.5" spans="1:7">
+    <row r="652" ht="63.75" spans="1:7">
       <c r="A652" s="12">
         <v>650</v>
       </c>
@@ -23664,7 +23664,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="653" ht="62.5" spans="1:7">
+    <row r="653" ht="63.75" spans="1:7">
       <c r="A653" s="12">
         <v>651</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="654" ht="62.5" spans="1:7">
+    <row r="654" ht="63.75" spans="1:7">
       <c r="A654" s="12">
         <v>652</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="655" ht="62.5" spans="1:7">
+    <row r="655" ht="63.75" spans="1:7">
       <c r="A655" s="12">
         <v>653</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="656" ht="62.5" spans="1:7">
+    <row r="656" ht="63.75" spans="1:7">
       <c r="A656" s="12">
         <v>654</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="657" ht="62.5" spans="1:7">
+    <row r="657" ht="63.75" spans="1:7">
       <c r="A657" s="12">
         <v>655</v>
       </c>
@@ -23779,7 +23779,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="658" ht="62.5" spans="1:7">
+    <row r="658" ht="63.75" spans="1:7">
       <c r="A658" s="12">
         <v>656</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="659" ht="62.5" spans="1:7">
+    <row r="659" ht="63.75" spans="1:7">
       <c r="A659" s="12">
         <v>657</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="660" ht="62.5" spans="1:7">
+    <row r="660" ht="63.75" spans="1:7">
       <c r="A660" s="12">
         <v>658</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="661" ht="62.5" spans="1:7">
+    <row r="661" ht="63.75" spans="1:7">
       <c r="A661" s="12">
         <v>659</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="662" ht="62.5" spans="1:7">
+    <row r="662" ht="63.75" spans="1:7">
       <c r="A662" s="12">
         <v>660</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="663" ht="62.5" spans="1:7">
+    <row r="663" ht="63.75" spans="1:7">
       <c r="A663" s="12">
         <v>661</v>
       </c>
@@ -23917,7 +23917,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="664" ht="62.5" spans="1:7">
+    <row r="664" ht="63.75" spans="1:7">
       <c r="A664" s="12">
         <v>662</v>
       </c>
@@ -23940,7 +23940,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="665" ht="62.5" spans="1:7">
+    <row r="665" ht="63.75" spans="1:7">
       <c r="A665" s="12">
         <v>663</v>
       </c>
@@ -23963,7 +23963,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="666" ht="62.5" spans="1:7">
+    <row r="666" ht="63.75" spans="1:7">
       <c r="A666" s="12">
         <v>664</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="667" ht="62.5" spans="1:7">
+    <row r="667" ht="63.75" spans="1:7">
       <c r="A667" s="12">
         <v>665</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="668" ht="62.5" spans="1:7">
+    <row r="668" ht="63.75" spans="1:7">
       <c r="A668" s="12">
         <v>666</v>
       </c>
@@ -24032,7 +24032,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="669" ht="62.5" spans="1:7">
+    <row r="669" ht="63.75" spans="1:7">
       <c r="A669" s="12">
         <v>667</v>
       </c>
@@ -24055,7 +24055,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="670" ht="62.5" spans="1:7">
+    <row r="670" ht="63.75" spans="1:7">
       <c r="A670" s="12">
         <v>668</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="671" ht="62.5" spans="1:7">
+    <row r="671" ht="63.75" spans="1:7">
       <c r="A671" s="12">
         <v>669</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="672" ht="62.5" spans="1:7">
+    <row r="672" ht="63.75" spans="1:7">
       <c r="A672" s="12">
         <v>670</v>
       </c>
@@ -24124,7 +24124,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="673" ht="62.5" spans="1:7">
+    <row r="673" ht="63.75" spans="1:7">
       <c r="A673" s="12">
         <v>671</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="674" ht="62.5" spans="1:7">
+    <row r="674" ht="63.75" spans="1:7">
       <c r="A674" s="12">
         <v>672</v>
       </c>
@@ -24170,7 +24170,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="675" ht="62.5" spans="1:7">
+    <row r="675" ht="63.75" spans="1:7">
       <c r="A675" s="12">
         <v>673</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="676" ht="62.5" spans="1:7">
+    <row r="676" ht="63.75" spans="1:7">
       <c r="A676" s="12">
         <v>674</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="677" ht="62.5" spans="1:7">
+    <row r="677" ht="63.75" spans="1:7">
       <c r="A677" s="12">
         <v>675</v>
       </c>
@@ -24239,7 +24239,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="678" ht="62.5" spans="1:7">
+    <row r="678" ht="63.75" spans="1:7">
       <c r="A678" s="12">
         <v>676</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="679" ht="62.5" spans="1:7">
+    <row r="679" ht="63.75" spans="1:7">
       <c r="A679" s="12">
         <v>677</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="680" ht="62.5" spans="1:7">
+    <row r="680" ht="63.75" spans="1:7">
       <c r="A680" s="12">
         <v>678</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="681" ht="62.5" spans="1:7">
+    <row r="681" ht="63.75" spans="1:7">
       <c r="A681" s="12">
         <v>679</v>
       </c>
@@ -24331,7 +24331,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="682" ht="62.5" spans="1:7">
+    <row r="682" ht="63.75" spans="1:7">
       <c r="A682" s="12">
         <v>680</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="683" ht="62.5" spans="1:7">
+    <row r="683" ht="63.75" spans="1:7">
       <c r="A683" s="12">
         <v>681</v>
       </c>
@@ -24377,7 +24377,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="684" ht="62.5" spans="1:7">
+    <row r="684" ht="63.75" spans="1:7">
       <c r="A684" s="12">
         <v>682</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="685" ht="62.5" spans="1:7">
+    <row r="685" ht="63.75" spans="1:7">
       <c r="A685" s="12">
         <v>683</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="686" ht="62.5" spans="1:7">
+    <row r="686" ht="63.75" spans="1:7">
       <c r="A686" s="12">
         <v>684</v>
       </c>
@@ -24446,7 +24446,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="687" ht="62.5" spans="1:7">
+    <row r="687" ht="63.75" spans="1:7">
       <c r="A687" s="12">
         <v>685</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="688" ht="62.5" spans="1:7">
+    <row r="688" ht="63.75" spans="1:7">
       <c r="A688" s="12">
         <v>686</v>
       </c>
@@ -24492,7 +24492,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="689" ht="62.5" spans="1:7">
+    <row r="689" ht="63.75" spans="1:7">
       <c r="A689" s="12">
         <v>687</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="690" ht="62.5" spans="1:7">
+    <row r="690" ht="63.75" spans="1:7">
       <c r="A690" s="12">
         <v>688</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="691" ht="62.5" spans="1:7">
+    <row r="691" ht="63.75" spans="1:7">
       <c r="A691" s="12">
         <v>689</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="692" ht="62.5" spans="1:7">
+    <row r="692" ht="63.75" spans="1:7">
       <c r="A692" s="12">
         <v>690</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="693" ht="62.5" spans="1:7">
+    <row r="693" ht="63.75" spans="1:7">
       <c r="A693" s="12">
         <v>691</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="694" ht="62.5" spans="1:7">
+    <row r="694" ht="63.75" spans="1:7">
       <c r="A694" s="12">
         <v>692</v>
       </c>
@@ -24630,7 +24630,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="695" ht="62.5" spans="1:7">
+    <row r="695" ht="63.75" spans="1:7">
       <c r="A695" s="12">
         <v>693</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="696" ht="62.5" spans="1:7">
+    <row r="696" ht="63.75" spans="1:7">
       <c r="A696" s="12">
         <v>694</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="697" ht="62.5" spans="1:7">
+    <row r="697" ht="63.75" spans="1:7">
       <c r="A697" s="12">
         <v>695</v>
       </c>
@@ -24699,7 +24699,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="698" ht="62.5" spans="1:7">
+    <row r="698" ht="63.75" spans="1:7">
       <c r="A698" s="12">
         <v>696</v>
       </c>
@@ -24722,7 +24722,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="699" ht="62.5" spans="1:7">
+    <row r="699" ht="63.75" spans="1:7">
       <c r="A699" s="12">
         <v>697</v>
       </c>
@@ -24745,7 +24745,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="700" ht="62.5" spans="1:7">
+    <row r="700" ht="63.75" spans="1:7">
       <c r="A700" s="12">
         <v>698</v>
       </c>
@@ -24768,7 +24768,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="701" ht="62.5" spans="1:7">
+    <row r="701" ht="63.75" spans="1:7">
       <c r="A701" s="12">
         <v>699</v>
       </c>
@@ -24791,7 +24791,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="702" ht="62.5" spans="1:7">
+    <row r="702" ht="63.75" spans="1:7">
       <c r="A702" s="12">
         <v>700</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="703" ht="62.5" spans="1:7">
+    <row r="703" ht="63.75" spans="1:7">
       <c r="A703" s="12">
         <v>701</v>
       </c>
@@ -24837,7 +24837,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="704" ht="62.5" spans="1:7">
+    <row r="704" ht="63.75" spans="1:7">
       <c r="A704" s="12">
         <v>702</v>
       </c>
@@ -24860,7 +24860,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="705" ht="62.5" spans="1:7">
+    <row r="705" ht="63.75" spans="1:7">
       <c r="A705" s="12">
         <v>703</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="706" ht="62.5" spans="1:7">
+    <row r="706" ht="63.75" spans="1:7">
       <c r="A706" s="12">
         <v>704</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="707" ht="62.5" spans="1:7">
+    <row r="707" ht="63.75" spans="1:7">
       <c r="A707" s="12">
         <v>705</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="708" ht="62.5" spans="1:7">
+    <row r="708" ht="63.75" spans="1:7">
       <c r="A708" s="12">
         <v>706</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="709" ht="62.5" spans="1:7">
+    <row r="709" ht="63.75" spans="1:7">
       <c r="A709" s="12">
         <v>707</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="710" ht="62.5" spans="1:7">
+    <row r="710" ht="63.75" spans="1:7">
       <c r="A710" s="12">
         <v>708</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="711" ht="62.5" spans="1:7">
+    <row r="711" ht="63.75" spans="1:7">
       <c r="A711" s="12">
         <v>709</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="712" ht="62.5" spans="1:7">
+    <row r="712" ht="63.75" spans="1:7">
       <c r="A712" s="12">
         <v>710</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="713" ht="62.5" spans="1:7">
+    <row r="713" ht="63.75" spans="1:7">
       <c r="A713" s="12">
         <v>711</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="714" ht="62.5" spans="1:7">
+    <row r="714" ht="63.75" spans="1:7">
       <c r="A714" s="12">
         <v>712</v>
       </c>
@@ -25090,7 +25090,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="715" ht="62.5" spans="1:7">
+    <row r="715" ht="63.75" spans="1:7">
       <c r="A715" s="12">
         <v>713</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="716" ht="62.5" spans="1:7">
+    <row r="716" ht="63.75" spans="1:7">
       <c r="A716" s="12">
         <v>714</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="717" ht="62.5" spans="1:7">
+    <row r="717" ht="63.75" spans="1:7">
       <c r="A717" s="12">
         <v>715</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="718" ht="62.5" spans="1:7">
+    <row r="718" ht="63.75" spans="1:7">
       <c r="A718" s="12">
         <v>716</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="719" ht="62.5" spans="1:7">
+    <row r="719" ht="63.75" spans="1:7">
       <c r="A719" s="12">
         <v>717</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="720" ht="62.5" spans="1:7">
+    <row r="720" ht="63.75" spans="1:7">
       <c r="A720" s="12">
         <v>718</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="721" ht="62.5" spans="1:7">
+    <row r="721" ht="63.75" spans="1:7">
       <c r="A721" s="12">
         <v>719</v>
       </c>
@@ -25251,7 +25251,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="722" ht="62.5" spans="1:7">
+    <row r="722" ht="63.75" spans="1:7">
       <c r="A722" s="12">
         <v>720</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="723" ht="62.5" spans="1:7">
+    <row r="723" ht="63.75" spans="1:7">
       <c r="A723" s="12">
         <v>721</v>
       </c>
@@ -25297,7 +25297,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="724" ht="62.5" spans="1:7">
+    <row r="724" ht="63.75" spans="1:7">
       <c r="A724" s="12">
         <v>722</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="725" ht="62.5" spans="1:7">
+    <row r="725" ht="63.75" spans="1:7">
       <c r="A725" s="12">
         <v>723</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="726" ht="62.5" spans="1:7">
+    <row r="726" ht="63.75" spans="1:7">
       <c r="A726" s="12">
         <v>724</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="727" ht="62.5" spans="1:7">
+    <row r="727" ht="63.75" spans="1:7">
       <c r="A727" s="12">
         <v>725</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="728" ht="62.5" spans="1:7">
+    <row r="728" ht="63.75" spans="1:7">
       <c r="A728" s="12">
         <v>726</v>
       </c>
@@ -25412,7 +25412,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="729" ht="62.5" spans="1:7">
+    <row r="729" ht="63.75" spans="1:7">
       <c r="A729" s="12">
         <v>727</v>
       </c>
@@ -25435,7 +25435,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="730" ht="62.5" spans="1:7">
+    <row r="730" ht="63.75" spans="1:7">
       <c r="A730" s="12">
         <v>728</v>
       </c>
@@ -25458,7 +25458,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="731" ht="62.5" spans="1:7">
+    <row r="731" ht="63.75" spans="1:7">
       <c r="A731" s="12">
         <v>729</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="732" ht="62.5" spans="1:7">
+    <row r="732" ht="63.75" spans="1:7">
       <c r="A732" s="12">
         <v>730</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="733" ht="62.5" spans="1:7">
+    <row r="733" ht="63.75" spans="1:7">
       <c r="A733" s="12">
         <v>731</v>
       </c>
@@ -25527,7 +25527,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="734" ht="62.5" spans="1:7">
+    <row r="734" ht="63.75" spans="1:7">
       <c r="A734" s="12">
         <v>732</v>
       </c>
@@ -25550,7 +25550,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="735" ht="62.5" spans="1:7">
+    <row r="735" ht="63.75" spans="1:7">
       <c r="A735" s="12">
         <v>733</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="736" ht="62.5" spans="1:7">
+    <row r="736" ht="63.75" spans="1:7">
       <c r="A736" s="12">
         <v>734</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="737" ht="62.5" spans="1:7">
+    <row r="737" ht="63.75" spans="1:7">
       <c r="A737" s="12">
         <v>735</v>
       </c>
@@ -25619,7 +25619,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="738" ht="62.5" spans="1:7">
+    <row r="738" ht="63.75" spans="1:7">
       <c r="A738" s="12">
         <v>736</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="739" ht="62.5" spans="1:7">
+    <row r="739" ht="63.75" spans="1:7">
       <c r="A739" s="12">
         <v>737</v>
       </c>
@@ -25665,7 +25665,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="740" ht="62.5" spans="1:7">
+    <row r="740" ht="63.75" spans="1:7">
       <c r="A740" s="12">
         <v>738</v>
       </c>
@@ -25688,7 +25688,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="741" ht="62.5" spans="1:7">
+    <row r="741" ht="63.75" spans="1:7">
       <c r="A741" s="12">
         <v>739</v>
       </c>
@@ -25711,7 +25711,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="742" ht="62.5" spans="1:7">
+    <row r="742" ht="63.75" spans="1:7">
       <c r="A742" s="12">
         <v>740</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="743" ht="62.5" spans="1:7">
+    <row r="743" ht="63.75" spans="1:7">
       <c r="A743" s="12">
         <v>741</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="744" ht="62.5" spans="1:7">
+    <row r="744" ht="63.75" spans="1:7">
       <c r="A744" s="12">
         <v>742</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="745" ht="62.5" spans="1:7">
+    <row r="745" ht="63.75" spans="1:7">
       <c r="A745" s="12">
         <v>743</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="746" ht="62.5" spans="1:7">
+    <row r="746" ht="63.75" spans="1:7">
       <c r="A746" s="12">
         <v>744</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="747" ht="62.5" spans="1:7">
+    <row r="747" ht="63.75" spans="1:7">
       <c r="A747" s="12">
         <v>745</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="748" ht="62.5" spans="1:7">
+    <row r="748" ht="63.75" spans="1:7">
       <c r="A748" s="12">
         <v>746</v>
       </c>
@@ -25872,7 +25872,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="749" ht="62.5" spans="1:7">
+    <row r="749" ht="63.75" spans="1:7">
       <c r="A749" s="12">
         <v>747</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="750" ht="62.5" spans="1:7">
+    <row r="750" ht="63.75" spans="1:7">
       <c r="A750" s="12">
         <v>748</v>
       </c>
@@ -25918,7 +25918,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="751" ht="62.5" spans="1:7">
+    <row r="751" ht="63.75" spans="1:7">
       <c r="A751" s="12">
         <v>749</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="752" ht="62.5" spans="1:7">
+    <row r="752" ht="63.75" spans="1:7">
       <c r="A752" s="12">
         <v>750</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="753" ht="62.5" spans="1:7">
+    <row r="753" ht="63.75" spans="1:7">
       <c r="A753" s="12">
         <v>751</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="754" ht="62.5" spans="1:7">
+    <row r="754" ht="63.75" spans="1:7">
       <c r="A754" s="12">
         <v>752</v>
       </c>
@@ -26010,7 +26010,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="755" ht="62.5" spans="1:7">
+    <row r="755" ht="63.75" spans="1:7">
       <c r="A755" s="12">
         <v>753</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="756" ht="62.5" spans="1:7">
+    <row r="756" ht="63.75" spans="1:7">
       <c r="A756" s="12">
         <v>754</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="757" ht="62.5" spans="1:7">
+    <row r="757" ht="63.75" spans="1:7">
       <c r="A757" s="12">
         <v>755</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="758" ht="62.5" spans="1:7">
+    <row r="758" ht="63.75" spans="1:7">
       <c r="A758" s="12">
         <v>756</v>
       </c>
@@ -26102,7 +26102,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="759" ht="62.5" spans="1:7">
+    <row r="759" ht="63.75" spans="1:7">
       <c r="A759" s="12">
         <v>757</v>
       </c>
@@ -26125,7 +26125,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="760" ht="62.5" spans="1:7">
+    <row r="760" ht="63.75" spans="1:7">
       <c r="A760" s="12">
         <v>758</v>
       </c>
@@ -26148,7 +26148,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="761" ht="62.5" spans="1:7">
+    <row r="761" ht="63.75" spans="1:7">
       <c r="A761" s="12">
         <v>759</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="762" ht="62.5" spans="1:7">
+    <row r="762" ht="63.75" spans="1:7">
       <c r="A762" s="12">
         <v>760</v>
       </c>
@@ -26194,7 +26194,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="763" ht="62.5" spans="1:7">
+    <row r="763" ht="63.75" spans="1:7">
       <c r="A763" s="12">
         <v>761</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="764" ht="62.5" spans="1:7">
+    <row r="764" ht="63.75" spans="1:7">
       <c r="A764" s="12">
         <v>762</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="765" ht="62.5" spans="1:7">
+    <row r="765" ht="63.75" spans="1:7">
       <c r="A765" s="12">
         <v>763</v>
       </c>
@@ -26263,7 +26263,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="766" ht="62.5" spans="1:7">
+    <row r="766" ht="63.75" spans="1:7">
       <c r="A766" s="12">
         <v>764</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="767" ht="62.5" spans="1:7">
+    <row r="767" ht="63.75" spans="1:7">
       <c r="A767" s="12">
         <v>765</v>
       </c>
@@ -26309,7 +26309,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="768" ht="62.5" spans="1:7">
+    <row r="768" ht="63.75" spans="1:7">
       <c r="A768" s="12">
         <v>766</v>
       </c>
@@ -26332,7 +26332,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="769" ht="62.5" spans="1:7">
+    <row r="769" ht="63.75" spans="1:7">
       <c r="A769" s="12">
         <v>767</v>
       </c>
@@ -26355,7 +26355,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="770" ht="62.5" spans="1:7">
+    <row r="770" ht="63.75" spans="1:7">
       <c r="A770" s="12">
         <v>768</v>
       </c>
@@ -26378,7 +26378,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="771" ht="62.5" spans="1:7">
+    <row r="771" ht="63.75" spans="1:7">
       <c r="A771" s="12">
         <v>769</v>
       </c>
@@ -26401,7 +26401,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="772" ht="62.5" spans="1:7">
+    <row r="772" ht="63.75" spans="1:7">
       <c r="A772" s="12">
         <v>770</v>
       </c>
@@ -26424,7 +26424,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="773" ht="62.5" spans="1:7">
+    <row r="773" ht="63.75" spans="1:7">
       <c r="A773" s="12">
         <v>771</v>
       </c>
@@ -26447,7 +26447,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="774" ht="62.5" spans="1:7">
+    <row r="774" ht="63.75" spans="1:7">
       <c r="A774" s="12">
         <v>772</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="775" ht="62.5" spans="1:7">
+    <row r="775" ht="63.75" spans="1:7">
       <c r="A775" s="12">
         <v>773</v>
       </c>
@@ -26493,7 +26493,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="776" ht="62.5" spans="1:7">
+    <row r="776" ht="63.75" spans="1:7">
       <c r="A776" s="12">
         <v>774</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="777" ht="62.5" spans="1:7">
+    <row r="777" ht="63.75" spans="1:7">
       <c r="A777" s="12">
         <v>775</v>
       </c>
@@ -26539,7 +26539,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="778" ht="62.5" spans="1:7">
+    <row r="778" ht="63.75" spans="1:7">
       <c r="A778" s="12">
         <v>776</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="779" ht="62.5" spans="1:7">
+    <row r="779" ht="63.75" spans="1:7">
       <c r="A779" s="12">
         <v>777</v>
       </c>
@@ -26585,7 +26585,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="780" ht="62.5" spans="1:7">
+    <row r="780" ht="63.75" spans="1:7">
       <c r="A780" s="12">
         <v>778</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="781" ht="62.5" spans="1:7">
+    <row r="781" ht="63.75" spans="1:7">
       <c r="A781" s="12">
         <v>779</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="782" ht="62.5" spans="1:7">
+    <row r="782" ht="63.75" spans="1:7">
       <c r="A782" s="12">
         <v>780</v>
       </c>
@@ -26654,7 +26654,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="783" ht="62.5" spans="1:7">
+    <row r="783" ht="63.75" spans="1:7">
       <c r="A783" s="12">
         <v>781</v>
       </c>
@@ -26677,7 +26677,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="784" ht="62.5" spans="1:7">
+    <row r="784" ht="63.75" spans="1:7">
       <c r="A784" s="12">
         <v>782</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="785" ht="62.5" spans="1:7">
+    <row r="785" ht="63.75" spans="1:7">
       <c r="A785" s="12">
         <v>783</v>
       </c>
@@ -26723,7 +26723,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="786" ht="62.5" spans="1:7">
+    <row r="786" ht="63.75" spans="1:7">
       <c r="A786" s="12">
         <v>784</v>
       </c>
@@ -26746,7 +26746,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="787" ht="62.5" spans="1:7">
+    <row r="787" ht="63.75" spans="1:7">
       <c r="A787" s="12">
         <v>785</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="788" ht="62.5" spans="1:7">
+    <row r="788" ht="63.75" spans="1:7">
       <c r="A788" s="12">
         <v>786</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="789" ht="62.5" spans="1:7">
+    <row r="789" ht="63.75" spans="1:7">
       <c r="A789" s="12">
         <v>787</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="790" ht="62.5" spans="1:7">
+    <row r="790" ht="63.75" spans="1:7">
       <c r="A790" s="12">
         <v>788</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="791" ht="62.5" spans="1:7">
+    <row r="791" ht="63.75" spans="1:7">
       <c r="A791" s="12">
         <v>789</v>
       </c>
@@ -26861,7 +26861,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="792" ht="62.5" spans="1:7">
+    <row r="792" ht="63.75" spans="1:7">
       <c r="A792" s="12">
         <v>790</v>
       </c>
@@ -26884,7 +26884,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="793" ht="62.5" spans="1:7">
+    <row r="793" ht="63.75" spans="1:7">
       <c r="A793" s="12">
         <v>791</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="794" ht="62.5" spans="1:7">
+    <row r="794" ht="63.75" spans="1:7">
       <c r="A794" s="12">
         <v>792</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="795" ht="62.5" spans="1:7">
+    <row r="795" ht="63.75" spans="1:7">
       <c r="A795" s="12">
         <v>793</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="796" ht="62.5" spans="1:7">
+    <row r="796" ht="63.75" spans="1:7">
       <c r="A796" s="12">
         <v>794</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="797" ht="62.5" spans="1:7">
+    <row r="797" ht="63.75" spans="1:7">
       <c r="A797" s="12">
         <v>795</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="798" ht="62.5" spans="1:7">
+    <row r="798" ht="63.75" spans="1:7">
       <c r="A798" s="12">
         <v>796</v>
       </c>
@@ -27022,7 +27022,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="799" ht="62.5" spans="1:7">
+    <row r="799" ht="63.75" spans="1:7">
       <c r="A799" s="12">
         <v>797</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="800" ht="62.5" spans="1:7">
+    <row r="800" ht="63.75" spans="1:7">
       <c r="A800" s="12">
         <v>798</v>
       </c>
@@ -27068,7 +27068,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="801" ht="62.5" spans="1:7">
+    <row r="801" ht="63.75" spans="1:7">
       <c r="A801" s="12">
         <v>799</v>
       </c>
@@ -27091,7 +27091,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="802" ht="62.5" spans="1:7">
+    <row r="802" ht="63.75" spans="1:7">
       <c r="A802" s="12">
         <v>800</v>
       </c>
@@ -27114,7 +27114,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="803" ht="62.5" spans="1:7">
+    <row r="803" ht="63.75" spans="1:7">
       <c r="A803" s="12">
         <v>801</v>
       </c>
@@ -27137,7 +27137,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="804" ht="62.5" spans="1:7">
+    <row r="804" ht="63.75" spans="1:7">
       <c r="A804" s="12">
         <v>802</v>
       </c>
@@ -27160,7 +27160,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="805" ht="62.5" spans="1:7">
+    <row r="805" ht="63.75" spans="1:7">
       <c r="A805" s="12">
         <v>803</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="806" ht="62.5" spans="1:7">
+    <row r="806" ht="63.75" spans="1:7">
       <c r="A806" s="12">
         <v>804</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="807" ht="62.5" spans="1:7">
+    <row r="807" ht="63.75" spans="1:7">
       <c r="A807" s="12">
         <v>805</v>
       </c>
@@ -27229,7 +27229,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="808" ht="62.5" spans="1:7">
+    <row r="808" ht="63.75" spans="1:7">
       <c r="A808" s="12">
         <v>806</v>
       </c>
@@ -27252,7 +27252,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="809" ht="62.5" spans="1:7">
+    <row r="809" ht="63.75" spans="1:7">
       <c r="A809" s="12">
         <v>807</v>
       </c>
@@ -27275,7 +27275,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="810" ht="62.5" spans="1:7">
+    <row r="810" ht="63.75" spans="1:7">
       <c r="A810" s="12">
         <v>808</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="811" ht="62.5" spans="1:7">
+    <row r="811" ht="63.75" spans="1:7">
       <c r="A811" s="12">
         <v>809</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="812" ht="62.5" spans="1:7">
+    <row r="812" ht="63.75" spans="1:7">
       <c r="A812" s="12">
         <v>810</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="813" ht="62.5" spans="1:7">
+    <row r="813" ht="63.75" spans="1:7">
       <c r="A813" s="12">
         <v>811</v>
       </c>
@@ -27367,7 +27367,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="814" ht="62.5" spans="1:7">
+    <row r="814" ht="63.75" spans="1:7">
       <c r="A814" s="12">
         <v>812</v>
       </c>
@@ -27390,7 +27390,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="815" ht="62.5" spans="1:7">
+    <row r="815" ht="63.75" spans="1:7">
       <c r="A815" s="12">
         <v>813</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="816" ht="62.5" spans="1:7">
+    <row r="816" ht="63.75" spans="1:7">
       <c r="A816" s="12">
         <v>814</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="817" ht="62.5" spans="1:7">
+    <row r="817" ht="63.75" spans="1:7">
       <c r="A817" s="12">
         <v>815</v>
       </c>
@@ -27459,7 +27459,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="818" ht="62.5" spans="1:7">
+    <row r="818" ht="63.75" spans="1:7">
       <c r="A818" s="12">
         <v>816</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="819" ht="62.5" spans="1:7">
+    <row r="819" ht="63.75" spans="1:7">
       <c r="A819" s="12">
         <v>817</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="820" ht="62.5" spans="1:7">
+    <row r="820" ht="63.75" spans="1:7">
       <c r="A820" s="12">
         <v>818</v>
       </c>
@@ -27528,7 +27528,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="821" ht="62.5" spans="1:7">
+    <row r="821" ht="63.75" spans="1:7">
       <c r="A821" s="12">
         <v>819</v>
       </c>
@@ -27551,7 +27551,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="822" ht="62.5" spans="1:7">
+    <row r="822" ht="63.75" spans="1:7">
       <c r="A822" s="12">
         <v>820</v>
       </c>
@@ -27574,7 +27574,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="823" ht="62.5" spans="1:7">
+    <row r="823" ht="63.75" spans="1:7">
       <c r="A823" s="12">
         <v>821</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="824" ht="62.5" spans="1:7">
+    <row r="824" ht="63.75" spans="1:7">
       <c r="A824" s="12">
         <v>822</v>
       </c>
@@ -27620,7 +27620,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="825" ht="62.5" spans="1:7">
+    <row r="825" ht="63.75" spans="1:7">
       <c r="A825" s="12">
         <v>823</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="826" ht="62.5" spans="1:7">
+    <row r="826" ht="63.75" spans="1:7">
       <c r="A826" s="12">
         <v>824</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="827" ht="62.5" spans="1:7">
+    <row r="827" ht="63.75" spans="1:7">
       <c r="A827" s="12">
         <v>825</v>
       </c>
@@ -27689,7 +27689,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="828" ht="62.5" spans="1:7">
+    <row r="828" ht="63.75" spans="1:7">
       <c r="A828" s="12">
         <v>826</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="829" ht="62.5" spans="1:7">
+    <row r="829" ht="63.75" spans="1:7">
       <c r="A829" s="12">
         <v>827</v>
       </c>
@@ -27735,7 +27735,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="830" ht="62.5" spans="1:7">
+    <row r="830" ht="63.75" spans="1:7">
       <c r="A830" s="12">
         <v>828</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="831" ht="62.5" spans="1:7">
+    <row r="831" ht="63.75" spans="1:7">
       <c r="A831" s="12">
         <v>829</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="832" ht="62.5" spans="1:7">
+    <row r="832" ht="63.75" spans="1:7">
       <c r="A832" s="12">
         <v>830</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="833" ht="62.5" spans="1:7">
+    <row r="833" ht="63.75" spans="1:7">
       <c r="A833" s="12">
         <v>831</v>
       </c>
@@ -27827,7 +27827,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="834" ht="62.5" spans="1:7">
+    <row r="834" ht="63.75" spans="1:7">
       <c r="A834" s="12">
         <v>832</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="835" ht="62.5" spans="1:7">
+    <row r="835" ht="63.75" spans="1:7">
       <c r="A835" s="12">
         <v>833</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="836" ht="62.5" spans="1:7">
+    <row r="836" ht="63.75" spans="1:7">
       <c r="A836" s="12">
         <v>834</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="837" ht="62.5" spans="1:7">
+    <row r="837" ht="63.75" spans="1:7">
       <c r="A837" s="12">
         <v>835</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="838" ht="62.5" spans="1:7">
+    <row r="838" ht="63.75" spans="1:7">
       <c r="A838" s="12">
         <v>836</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="839" ht="62.5" spans="1:7">
+    <row r="839" ht="63.75" spans="1:7">
       <c r="A839" s="12">
         <v>837</v>
       </c>
@@ -27965,7 +27965,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="840" ht="62.5" spans="1:7">
+    <row r="840" ht="63.75" spans="1:7">
       <c r="A840" s="12">
         <v>838</v>
       </c>
@@ -27988,7 +27988,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="841" ht="62.5" spans="1:7">
+    <row r="841" ht="63.75" spans="1:7">
       <c r="A841" s="12">
         <v>839</v>
       </c>
@@ -28011,7 +28011,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="842" ht="62.5" spans="1:7">
+    <row r="842" ht="63.75" spans="1:7">
       <c r="A842" s="12">
         <v>840</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="843" ht="62.5" spans="1:7">
+    <row r="843" ht="63.75" spans="1:7">
       <c r="A843" s="12">
         <v>841</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="844" ht="62.5" spans="1:7">
+    <row r="844" ht="63.75" spans="1:7">
       <c r="A844" s="12">
         <v>842</v>
       </c>
@@ -28080,7 +28080,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="845" ht="62.5" spans="1:7">
+    <row r="845" ht="63.75" spans="1:7">
       <c r="A845" s="12">
         <v>843</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="846" ht="62.5" spans="1:7">
+    <row r="846" ht="63.75" spans="1:7">
       <c r="A846" s="12">
         <v>844</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="847" ht="62.5" spans="1:7">
+    <row r="847" ht="63.75" spans="1:7">
       <c r="A847" s="12">
         <v>845</v>
       </c>
@@ -28149,7 +28149,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="848" ht="62.5" spans="1:7">
+    <row r="848" ht="63.75" spans="1:7">
       <c r="A848" s="12">
         <v>846</v>
       </c>
@@ -28172,7 +28172,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="849" ht="62.5" spans="1:7">
+    <row r="849" ht="63.75" spans="1:7">
       <c r="A849" s="12">
         <v>847</v>
       </c>
@@ -28195,7 +28195,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="850" ht="62.5" spans="1:7">
+    <row r="850" ht="63.75" spans="1:7">
       <c r="A850" s="12">
         <v>848</v>
       </c>
@@ -28218,7 +28218,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="851" ht="62.5" spans="1:7">
+    <row r="851" ht="63.75" spans="1:7">
       <c r="A851" s="12">
         <v>849</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="852" ht="62.5" spans="1:7">
+    <row r="852" ht="63.75" spans="1:7">
       <c r="A852" s="12">
         <v>850</v>
       </c>
@@ -31866,7 +31866,7 @@
       </c>
       <c r="G1052" s="4"/>
     </row>
-    <row r="1053" ht="37.5" spans="1:7">
+    <row r="1053" ht="38.25" spans="1:7">
       <c r="A1053" s="12">
         <v>1051</v>
       </c>
@@ -32098,7 +32098,7 @@
       </c>
       <c r="G1064" s="4"/>
     </row>
-    <row r="1065" ht="37.5" spans="1:7">
+    <row r="1065" ht="38.25" spans="1:7">
       <c r="A1065" s="12">
         <v>1063</v>
       </c>
@@ -32121,7 +32121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1066" ht="37.5" spans="1:7">
+    <row r="1066" ht="38.25" spans="1:7">
       <c r="A1066" s="12">
         <v>1064</v>
       </c>
@@ -32144,7 +32144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1067" ht="37.5" spans="1:7">
+    <row r="1067" ht="38.25" spans="1:7">
       <c r="A1067" s="12">
         <v>1065</v>
       </c>
@@ -32167,7 +32167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1068" ht="37.5" spans="1:7">
+    <row r="1068" ht="38.25" spans="1:7">
       <c r="A1068" s="12">
         <v>1066</v>
       </c>
@@ -32190,7 +32190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1069" ht="37.5" spans="1:7">
+    <row r="1069" ht="38.25" spans="1:7">
       <c r="A1069" s="12">
         <v>1067</v>
       </c>
@@ -32213,7 +32213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1070" ht="37.5" spans="1:7">
+    <row r="1070" ht="38.25" spans="1:7">
       <c r="A1070" s="12">
         <v>1068</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1071" ht="37.5" spans="1:7">
+    <row r="1071" ht="38.25" spans="1:7">
       <c r="A1071" s="12">
         <v>1069</v>
       </c>
@@ -32259,7 +32259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1072" ht="37.5" spans="1:7">
+    <row r="1072" ht="38.25" spans="1:7">
       <c r="A1072" s="12">
         <v>1070</v>
       </c>
@@ -32339,7 +32339,7 @@
       </c>
       <c r="G1075" s="4"/>
     </row>
-    <row r="1076" ht="62.5" spans="1:7">
+    <row r="1076" ht="63.75" spans="1:7">
       <c r="A1076" s="12">
         <v>1074</v>
       </c>
@@ -32362,7 +32362,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1077" ht="62.5" spans="1:7">
+    <row r="1077" ht="63.75" spans="1:7">
       <c r="A1077" s="12">
         <v>1075</v>
       </c>
@@ -32385,7 +32385,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1078" ht="62.5" spans="1:7">
+    <row r="1078" ht="63.75" spans="1:7">
       <c r="A1078" s="12">
         <v>1076</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1079" ht="62.5" spans="1:7">
+    <row r="1079" ht="63.75" spans="1:7">
       <c r="A1079" s="12">
         <v>1077</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1080" ht="62.5" spans="1:7">
+    <row r="1080" ht="63.75" spans="1:7">
       <c r="A1080" s="12">
         <v>1078</v>
       </c>
@@ -32454,7 +32454,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1081" ht="62.5" spans="1:7">
+    <row r="1081" ht="63.75" spans="1:7">
       <c r="A1081" s="12">
         <v>1079</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1082" ht="62.5" spans="1:7">
+    <row r="1082" ht="63.75" spans="1:7">
       <c r="A1082" s="12">
         <v>1080</v>
       </c>
@@ -32500,7 +32500,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1083" ht="62.5" spans="1:7">
+    <row r="1083" ht="63.75" spans="1:7">
       <c r="A1083" s="12">
         <v>1081</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1084" ht="62.5" spans="1:7">
+    <row r="1084" ht="63.75" spans="1:7">
       <c r="A1084" s="12">
         <v>1082</v>
       </c>
@@ -32546,7 +32546,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="1085" ht="62.5" spans="1:8">
+    <row r="1085" ht="63.75" spans="1:8">
       <c r="A1085" s="12">
         <v>1083</v>
       </c>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="G1120" s="4"/>
     </row>
-    <row r="1121" ht="62.5" spans="1:7">
+    <row r="1121" ht="63.75" spans="1:7">
       <c r="A1121" s="12">
         <v>1119</v>
       </c>
@@ -33280,7 +33280,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="409.5" spans="1:1120">
       <c r="A1" s="1" t="s">
@@ -36161,7 +36161,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/resources/2012microdata_codebook.xlsx
+++ b/resources/2012microdata_codebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28245" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5925" uniqueCount="2414">
   <si>
     <t>File order</t>
   </si>
@@ -7727,9 +7727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -7774,32 +7774,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7810,36 +7787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7861,32 +7811,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7901,6 +7870,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7909,8 +7902,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7925,13 +7925,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7949,31 +8069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7985,97 +8087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8087,25 +8099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8116,50 +8116,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8195,9 +8151,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8216,16 +8207,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8234,133 +8234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -8762,9 +8762,9 @@
   <dimension ref="A1:H1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
